--- a/Versão5/TETO/Ontologia_TETOS.xlsx
+++ b/Versão5/TETO/Ontologia_TETOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\TETO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A327FC61-490E-41EC-947A-9F5BC311BA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1A7E96-D23C-4E81-80FE-3A04785CA9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Interop" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$C$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$C$1:$C$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Interop!$B$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="196">
   <si>
     <t>EquivalentTo: 
 Raiz
@@ -345,9 +345,6 @@
     <t>Define un contenedor de información de acuerdo con la norma NBR 19650-1.</t>
   </si>
   <si>
-    <t>Arquitetura</t>
-  </si>
-  <si>
     <t>descrição</t>
   </si>
   <si>
@@ -414,9 +411,6 @@
     <t>Placa.EPS</t>
   </si>
   <si>
-    <t>Fixo</t>
-  </si>
-  <si>
     <t>Removível</t>
   </si>
   <si>
@@ -562,6 +556,111 @@
   </si>
   <si>
     <t>"Baffle acústico suspenso tipo linear para absorção sonora."</t>
+  </si>
+  <si>
+    <t>Composição</t>
+  </si>
+  <si>
+    <t>Argamassa</t>
+  </si>
+  <si>
+    <t>Argamassa para colar peças cerámicas ou porcelanatos em pisos ou paredes.</t>
+  </si>
+  <si>
+    <t>Graute</t>
+  </si>
+  <si>
+    <t>Argamassa de grauteamento para preenchimento de cavidades em estruturas.</t>
+  </si>
+  <si>
+    <t>Mortero de rejuntado para el relleno de cavidades en estructuras.</t>
+  </si>
+  <si>
+    <t>Polimérica</t>
+  </si>
+  <si>
+    <t>Argamassa polimérica para camadas de isolamento.</t>
+  </si>
+  <si>
+    <t>Mortero polimérico para capas aislantes.</t>
+  </si>
+  <si>
+    <t>Rejunte</t>
+  </si>
+  <si>
+    <t>Argamassa para rejuntamento.</t>
+  </si>
+  <si>
+    <t>Mortero de lechada.</t>
+  </si>
+  <si>
+    <t>ARG.BARI</t>
+  </si>
+  <si>
+    <t>Baritada</t>
+  </si>
+  <si>
+    <t>"Argamassa utilizada para proteção radiológica, usar em centros de saúde e clinicas de radioterapia, radiologia, medicina nuclear, etc."</t>
+  </si>
+  <si>
+    <t>"Sala de radioterapia"</t>
+  </si>
+  <si>
+    <t>"Barimix"</t>
+  </si>
+  <si>
+    <t>Argamassa utilizada para proteção radiológica, usar em centros de saúde e clinicas de radioterapia, radiologia, medicina nuclear, etc.</t>
+  </si>
+  <si>
+    <t>Mortero utilizado para protección radiológica. Usar en centros de salud y clinicas de radioterapia, radiología, medicina nuclear, etc.</t>
+  </si>
+  <si>
+    <t>Assentamento</t>
+  </si>
+  <si>
+    <t>Argamassa para assentamento de tijolos e blocos.</t>
+  </si>
+  <si>
+    <t>Mortero para la colocación de ladrillos y bloques.</t>
+  </si>
+  <si>
+    <t>Chapisco</t>
+  </si>
+  <si>
+    <t>Argamassa para chapiscar.</t>
+  </si>
+  <si>
+    <t>Mortero para enlucido.</t>
+  </si>
+  <si>
+    <t>Emboço</t>
+  </si>
+  <si>
+    <t>Argamassa para de emboço regularizadora da superfície.</t>
+  </si>
+  <si>
+    <t>Mortero para enlucir la superficie a regularizar.</t>
+  </si>
+  <si>
+    <t>Reboco</t>
+  </si>
+  <si>
+    <t>Argamassa para reboco final.</t>
+  </si>
+  <si>
+    <t>Mortero para enlucido final.</t>
+  </si>
+  <si>
+    <t>Argamassa para os contrapisos.</t>
+  </si>
+  <si>
+    <t>Mortero para contrapisos.</t>
+  </si>
+  <si>
+    <t>Mortero para pegar piezas cerámicas o porcelanatos en suelos o paredes.</t>
+  </si>
+  <si>
+    <t>Aplicado</t>
   </si>
 </sst>
 </file>
@@ -873,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1069,11 +1168,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="263">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1109,6 +1214,1906 @@
         <strike val="0"/>
         <color rgb="FFFFFFFF"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2267,7 +4272,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="9.5500000000000007" customHeight="1" x14ac:dyDescent="0.4">
@@ -2381,7 +4386,7 @@
         <v>67</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9.5500000000000007" customHeight="1" x14ac:dyDescent="0.4">
@@ -2390,7 +4395,7 @@
       </c>
       <c r="B18" s="39">
         <f ca="1">NOW()</f>
-        <v>45915.395969791665</v>
+        <v>45915.424236921295</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.5500000000000007" customHeight="1" x14ac:dyDescent="0.4">
@@ -2422,7 +4427,7 @@
         <v>73</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="9.5500000000000007" customHeight="1" x14ac:dyDescent="0.4">
@@ -2430,7 +4435,7 @@
         <v>74</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2440,37 +4445,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96052D63-9637-42D9-866B-0BB924A50D8C}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A179" sqref="A179:XFD190"/>
-      <selection pane="bottomLeft" activeCell="W2" sqref="W2:W10"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.23046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.15234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.61328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.3828125" customWidth="1"/>
+    <col min="2" max="2" width="3.61328125" customWidth="1"/>
+    <col min="3" max="3" width="4.23046875" customWidth="1"/>
+    <col min="4" max="4" width="5.921875" customWidth="1"/>
+    <col min="5" max="5" width="5.84375" customWidth="1"/>
+    <col min="6" max="6" width="7.61328125" customWidth="1"/>
     <col min="7" max="11" width="5.53515625" style="29" customWidth="1"/>
     <col min="12" max="12" width="3.921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.61328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.15234375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.69140625" customWidth="1"/>
+    <col min="14" max="14" width="5.3828125" customWidth="1"/>
+    <col min="15" max="15" width="7.921875" customWidth="1"/>
     <col min="16" max="16" width="42.4609375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="42.765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.84375" customWidth="1"/>
+    <col min="17" max="17" width="50.84375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3" style="68" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.3828125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.3828125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.15234375" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="4.61328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.84375" style="29" customWidth="1"/>
+    <col min="23" max="23" width="5.23046875" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="36" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="36" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31">
         <v>1</v>
       </c>
@@ -2576,7 +4581,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="26" t="str">
-        <f t="shared" ref="L2:M2" si="0">CONCATENATE("", C2)</f>
+        <f t="shared" ref="L2:M12" si="0">CONCATENATE("", C2)</f>
         <v>Gestão</v>
       </c>
       <c r="M2" s="26" t="str">
@@ -2592,7 +4597,7 @@
         <v>Contêiner</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="21" t="s">
         <v>89</v>
@@ -2601,7 +4606,7 @@
         <v>9</v>
       </c>
       <c r="S2" s="28" t="str">
-        <f t="shared" ref="S2:U2" si="1">SUBSTITUTE(C2, ".", " ")</f>
+        <f t="shared" ref="S2:U17" si="1">SUBSTITUTE(C2, ".", " ")</f>
         <v>Gestão</v>
       </c>
       <c r="T2" s="28" t="str">
@@ -2628,16 +4633,16 @@
         <v>44</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>9</v>
@@ -2655,47 +4660,47 @@
         <v>9</v>
       </c>
       <c r="L3" s="26" t="str">
-        <f t="shared" ref="L3" si="2">CONCATENATE("", C3)</f>
+        <f t="shared" si="0"/>
         <v>Forro</v>
       </c>
       <c r="M3" s="26" t="str">
-        <f t="shared" ref="M3" si="3">CONCATENATE("", D3)</f>
-        <v>Fixo</v>
+        <f t="shared" si="0"/>
+        <v>Composição</v>
       </c>
       <c r="N3" s="26" t="str">
-        <f t="shared" ref="N3" si="4">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E3),"."," ")," De "," de "))</f>
-        <v>Moldado</v>
+        <f t="shared" ref="N3:N12" si="2">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E3),"."," ")," De "," de "))</f>
+        <v>Argamassa</v>
       </c>
       <c r="O3" s="21" t="str">
-        <f t="shared" ref="O3" si="5">F3</f>
-        <v>Gesso</v>
+        <f t="shared" ref="O3:O12" si="3">F3</f>
+        <v>Assentamento</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S3" s="28" t="str">
-        <f t="shared" ref="S3" si="6">SUBSTITUTE(C3, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Forro</v>
       </c>
       <c r="T3" s="28" t="str">
-        <f t="shared" ref="T3" si="7">SUBSTITUTE(D3, ".", " ")</f>
-        <v>Fixo</v>
+        <f t="shared" si="1"/>
+        <v>Composição</v>
       </c>
       <c r="U3" s="28" t="str">
-        <f t="shared" ref="U3" si="8">SUBSTITUTE(E3, ".", " ")</f>
-        <v>Moldado</v>
+        <f t="shared" si="1"/>
+        <v>Argamassa</v>
       </c>
       <c r="V3" s="28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W10" si="9">CONCATENATE("Key-Teto-",A3)</f>
+        <f t="shared" ref="W3:W20" si="4">CONCATENATE("Key-Teto-",A3)</f>
         <v>Key-Teto-3</v>
       </c>
     </row>
@@ -2707,16 +4712,16 @@
         <v>44</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>9</v>
@@ -2734,47 +4739,47 @@
         <v>9</v>
       </c>
       <c r="L4" s="26" t="str">
-        <f t="shared" ref="L4:L7" si="10">CONCATENATE("", C4)</f>
+        <f t="shared" si="0"/>
         <v>Forro</v>
       </c>
       <c r="M4" s="26" t="str">
-        <f t="shared" ref="M4:M7" si="11">CONCATENATE("", D4)</f>
-        <v>Fixo</v>
+        <f t="shared" si="0"/>
+        <v>Composição</v>
       </c>
       <c r="N4" s="26" t="str">
-        <f t="shared" ref="N4:N7" si="12">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E4),"."," ")," De "," de "))</f>
-        <v>Moldado</v>
+        <f t="shared" si="2"/>
+        <v>Argamassa</v>
       </c>
       <c r="O4" s="21" t="str">
-        <f t="shared" ref="O4:O7" si="13">F4</f>
-        <v>Gesso.Emplacado</v>
+        <f t="shared" si="3"/>
+        <v>Chapisco</v>
       </c>
       <c r="P4" s="41" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="40" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="R4" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S4" s="28" t="str">
-        <f t="shared" ref="S4:S7" si="14">SUBSTITUTE(C4, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Forro</v>
       </c>
       <c r="T4" s="28" t="str">
-        <f t="shared" ref="T4:T7" si="15">SUBSTITUTE(D4, ".", " ")</f>
-        <v>Fixo</v>
+        <f t="shared" si="1"/>
+        <v>Composição</v>
       </c>
       <c r="U4" s="28" t="str">
-        <f t="shared" ref="U4:U7" si="16">SUBSTITUTE(E4, ".", " ")</f>
-        <v>Moldado</v>
+        <f t="shared" si="1"/>
+        <v>Argamassa</v>
       </c>
       <c r="V4" s="28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="W4" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>Key-Teto-4</v>
       </c>
     </row>
@@ -2786,16 +4791,16 @@
         <v>44</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="G5" s="30" t="s">
         <v>9</v>
@@ -2813,47 +4818,47 @@
         <v>9</v>
       </c>
       <c r="L5" s="26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>Forro</v>
       </c>
       <c r="M5" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v>Removível</v>
+        <f t="shared" si="0"/>
+        <v>Composição</v>
       </c>
       <c r="N5" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Modular</v>
+        <f t="shared" si="2"/>
+        <v>Argamassa</v>
       </c>
       <c r="O5" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Placa.EPS</v>
+        <f t="shared" si="3"/>
+        <v>Emboço</v>
       </c>
       <c r="P5" s="41" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="40" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="R5" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>Forro</v>
       </c>
       <c r="T5" s="28" t="str">
-        <f t="shared" si="15"/>
-        <v>Removível</v>
+        <f t="shared" si="1"/>
+        <v>Composição</v>
       </c>
       <c r="U5" s="28" t="str">
-        <f t="shared" si="16"/>
-        <v>Modular</v>
+        <f t="shared" si="1"/>
+        <v>Argamassa</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="W5" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>Key-Teto-5</v>
       </c>
     </row>
@@ -2865,16 +4870,16 @@
         <v>44</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>9</v>
@@ -2892,47 +4897,47 @@
         <v>9</v>
       </c>
       <c r="L6" s="26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>Forro</v>
       </c>
       <c r="M6" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v>Acústico</v>
+        <f t="shared" si="0"/>
+        <v>Composição</v>
       </c>
       <c r="N6" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Adesivado</v>
+        <f t="shared" si="2"/>
+        <v>Argamassa</v>
       </c>
       <c r="O6" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Placa.3D</v>
+        <f t="shared" si="3"/>
+        <v>Reboco</v>
       </c>
       <c r="P6" s="41" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="Q6" s="40" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="R6" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S6" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>Forro</v>
       </c>
       <c r="T6" s="28" t="str">
-        <f t="shared" si="15"/>
-        <v>Acústico</v>
+        <f t="shared" si="1"/>
+        <v>Composição</v>
       </c>
       <c r="U6" s="28" t="str">
-        <f t="shared" si="16"/>
-        <v>Adesivado</v>
+        <f t="shared" si="1"/>
+        <v>Argamassa</v>
       </c>
       <c r="V6" s="28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="W6" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>Key-Teto-6</v>
       </c>
     </row>
@@ -2944,16 +4949,16 @@
         <v>44</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>9</v>
@@ -2971,47 +4976,47 @@
         <v>9</v>
       </c>
       <c r="L7" s="26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>Forro</v>
       </c>
       <c r="M7" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v>Acústico</v>
+        <f t="shared" si="0"/>
+        <v>Composição</v>
       </c>
       <c r="N7" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Adesivado</v>
+        <f t="shared" si="2"/>
+        <v>Argamassa</v>
       </c>
       <c r="O7" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Placa.Shell</v>
+        <f t="shared" si="3"/>
+        <v>Niveladora</v>
       </c>
       <c r="P7" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q7" s="40" t="s">
-        <v>136</v>
+        <v>192</v>
+      </c>
+      <c r="Q7" s="41" t="s">
+        <v>193</v>
       </c>
       <c r="R7" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S7" s="28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>Forro</v>
       </c>
       <c r="T7" s="28" t="str">
-        <f t="shared" si="15"/>
-        <v>Acústico</v>
+        <f t="shared" si="1"/>
+        <v>Composição</v>
       </c>
       <c r="U7" s="28" t="str">
-        <f t="shared" si="16"/>
-        <v>Adesivado</v>
+        <f t="shared" si="1"/>
+        <v>Argamassa</v>
       </c>
       <c r="V7" s="28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="W7" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>Key-Teto-7</v>
       </c>
     </row>
@@ -3023,16 +5028,16 @@
         <v>44</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>9</v>
@@ -3050,47 +5055,47 @@
         <v>9</v>
       </c>
       <c r="L8" s="26" t="str">
-        <f t="shared" ref="L8:L9" si="17">CONCATENATE("", C8)</f>
+        <f t="shared" si="0"/>
         <v>Forro</v>
       </c>
       <c r="M8" s="26" t="str">
-        <f t="shared" ref="M8:M9" si="18">CONCATENATE("", D8)</f>
-        <v>Acústico</v>
+        <f t="shared" si="0"/>
+        <v>Composição</v>
       </c>
       <c r="N8" s="26" t="str">
-        <f t="shared" ref="N8:N9" si="19">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E8),"."," ")," De "," de "))</f>
-        <v>Suspenso</v>
+        <f t="shared" si="2"/>
+        <v>Argamassa</v>
       </c>
       <c r="O8" s="21" t="str">
-        <f t="shared" ref="O8:O9" si="20">F8</f>
-        <v>Baffle.Linear</v>
+        <f t="shared" si="3"/>
+        <v>Colante</v>
       </c>
       <c r="P8" s="41" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="Q8" s="40" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="R8" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S8" s="28" t="str">
-        <f t="shared" ref="S8:S9" si="21">SUBSTITUTE(C8, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Forro</v>
       </c>
       <c r="T8" s="28" t="str">
-        <f t="shared" ref="T8:T9" si="22">SUBSTITUTE(D8, ".", " ")</f>
-        <v>Acústico</v>
+        <f t="shared" si="1"/>
+        <v>Composição</v>
       </c>
       <c r="U8" s="28" t="str">
-        <f t="shared" ref="U8:U9" si="23">SUBSTITUTE(E8, ".", " ")</f>
-        <v>Suspenso</v>
+        <f t="shared" si="1"/>
+        <v>Argamassa</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="W8" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>Key-Teto-8</v>
       </c>
     </row>
@@ -3102,16 +5107,16 @@
         <v>44</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>118</v>
+        <v>162</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>164</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>9</v>
@@ -3129,47 +5134,47 @@
         <v>9</v>
       </c>
       <c r="L9" s="26" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="0"/>
         <v>Forro</v>
       </c>
       <c r="M9" s="26" t="str">
-        <f t="shared" si="18"/>
-        <v>Acústico</v>
+        <f t="shared" si="0"/>
+        <v>Composição</v>
       </c>
       <c r="N9" s="26" t="str">
-        <f t="shared" si="19"/>
-        <v>Suspenso</v>
+        <f t="shared" si="2"/>
+        <v>Argamassa</v>
       </c>
       <c r="O9" s="21" t="str">
-        <f t="shared" si="20"/>
-        <v>Baffle.Cilíndrico</v>
-      </c>
-      <c r="P9" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q9" s="40" t="s">
-        <v>138</v>
+        <f t="shared" si="3"/>
+        <v>Graute</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q9" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="R9" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S9" s="28" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="1"/>
         <v>Forro</v>
       </c>
       <c r="T9" s="28" t="str">
-        <f t="shared" si="22"/>
-        <v>Acústico</v>
+        <f t="shared" si="1"/>
+        <v>Composição</v>
       </c>
       <c r="U9" s="28" t="str">
-        <f t="shared" si="23"/>
-        <v>Suspenso</v>
+        <f t="shared" si="1"/>
+        <v>Argamassa</v>
       </c>
       <c r="V9" s="28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="W9" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>Key-Teto-9</v>
       </c>
     </row>
@@ -3181,165 +5186,1008 @@
         <v>44</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Forro</v>
+      </c>
+      <c r="M10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Composição</v>
+      </c>
+      <c r="N10" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Argamassa</v>
+      </c>
+      <c r="O10" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>Polimérica</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Forro</v>
+      </c>
+      <c r="T10" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Composição</v>
+      </c>
+      <c r="U10" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Argamassa</v>
+      </c>
+      <c r="V10" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="W10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Teto-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="23">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Forro</v>
+      </c>
+      <c r="M11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Composição</v>
+      </c>
+      <c r="N11" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Argamassa</v>
+      </c>
+      <c r="O11" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>Rejunte</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q11" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="R11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Forro</v>
+      </c>
+      <c r="T11" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Composição</v>
+      </c>
+      <c r="U11" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Argamassa</v>
+      </c>
+      <c r="V11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="W11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Teto-11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="23">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Forro</v>
+      </c>
+      <c r="M12" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Composição</v>
+      </c>
+      <c r="N12" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Argamassa</v>
+      </c>
+      <c r="O12" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>Baritada</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q12" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Forro</v>
+      </c>
+      <c r="T12" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Composição</v>
+      </c>
+      <c r="U12" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Argamassa</v>
+      </c>
+      <c r="V12" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="W12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Teto-12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="23">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="G13" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="26" t="str">
+        <f t="shared" ref="L13" si="5">CONCATENATE("", C13)</f>
+        <v>Forro</v>
+      </c>
+      <c r="M13" s="26" t="str">
+        <f t="shared" ref="M13" si="6">CONCATENATE("", D13)</f>
+        <v>Aplicado</v>
+      </c>
+      <c r="N13" s="26" t="str">
+        <f t="shared" ref="N13" si="7">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E13),"."," ")," De "," de "))</f>
+        <v>Moldado</v>
+      </c>
+      <c r="O13" s="21" t="str">
+        <f t="shared" ref="O13" si="8">F13</f>
+        <v>Gesso</v>
+      </c>
+      <c r="P13" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="R13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Forro</v>
+      </c>
+      <c r="T13" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Aplicado</v>
+      </c>
+      <c r="U13" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Moldado</v>
+      </c>
+      <c r="V13" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="W13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Teto-13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="23">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="26" t="str">
+        <f t="shared" ref="L14:L17" si="9">CONCATENATE("", C14)</f>
+        <v>Forro</v>
+      </c>
+      <c r="M14" s="26" t="str">
+        <f t="shared" ref="M14:M17" si="10">CONCATENATE("", D14)</f>
+        <v>Aplicado</v>
+      </c>
+      <c r="N14" s="26" t="str">
+        <f t="shared" ref="N14:N17" si="11">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E14),"."," ")," De "," de "))</f>
+        <v>Moldado</v>
+      </c>
+      <c r="O14" s="21" t="str">
+        <f t="shared" ref="O14:O17" si="12">F14</f>
+        <v>Gesso.Emplacado</v>
+      </c>
+      <c r="P14" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="R14" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Forro</v>
+      </c>
+      <c r="T14" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Aplicado</v>
+      </c>
+      <c r="U14" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Moldado</v>
+      </c>
+      <c r="V14" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="W14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Teto-14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="23">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v>Forro</v>
+      </c>
+      <c r="M15" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Removível</v>
+      </c>
+      <c r="N15" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>Modular</v>
+      </c>
+      <c r="O15" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>Placa.EPS</v>
+      </c>
+      <c r="P15" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="Q15" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Forro</v>
+      </c>
+      <c r="T15" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Removível</v>
+      </c>
+      <c r="U15" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Modular</v>
+      </c>
+      <c r="V15" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="W15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Teto-15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="23">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v>Forro</v>
+      </c>
+      <c r="M16" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Acústico</v>
+      </c>
+      <c r="N16" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>Adesivado</v>
+      </c>
+      <c r="O16" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>Placa.3D</v>
+      </c>
+      <c r="P16" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q16" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="R16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Forro</v>
+      </c>
+      <c r="T16" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Acústico</v>
+      </c>
+      <c r="U16" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Adesivado</v>
+      </c>
+      <c r="V16" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="W16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Teto-16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="23">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v>Forro</v>
+      </c>
+      <c r="M17" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v>Acústico</v>
+      </c>
+      <c r="N17" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>Adesivado</v>
+      </c>
+      <c r="O17" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>Placa.Shell</v>
+      </c>
+      <c r="P17" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="26" t="str">
-        <f t="shared" ref="L10" si="24">CONCATENATE("", C10)</f>
+      <c r="Q17" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="R17" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17" s="28" t="str">
+        <f t="shared" si="1"/>
         <v>Forro</v>
       </c>
-      <c r="M10" s="26" t="str">
-        <f t="shared" ref="M10" si="25">CONCATENATE("", D10)</f>
+      <c r="T17" s="28" t="str">
+        <f t="shared" si="1"/>
         <v>Acústico</v>
       </c>
-      <c r="N10" s="26" t="str">
-        <f t="shared" ref="N10" si="26">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E10),"."," ")," De "," de "))</f>
+      <c r="U17" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Adesivado</v>
+      </c>
+      <c r="V17" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="W17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Teto-17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="23">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="26" t="str">
+        <f t="shared" ref="L18:L19" si="13">CONCATENATE("", C18)</f>
+        <v>Forro</v>
+      </c>
+      <c r="M18" s="26" t="str">
+        <f t="shared" ref="M18:M19" si="14">CONCATENATE("", D18)</f>
+        <v>Acústico</v>
+      </c>
+      <c r="N18" s="26" t="str">
+        <f t="shared" ref="N18:N19" si="15">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E18),"."," ")," De "," de "))</f>
         <v>Suspenso</v>
       </c>
-      <c r="O10" s="21" t="str">
-        <f t="shared" ref="O10" si="27">F10</f>
+      <c r="O18" s="21" t="str">
+        <f t="shared" ref="O18:O19" si="16">F18</f>
+        <v>Baffle.Linear</v>
+      </c>
+      <c r="P18" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="R18" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" s="28" t="str">
+        <f t="shared" ref="S18:U20" si="17">SUBSTITUTE(C18, ".", " ")</f>
+        <v>Forro</v>
+      </c>
+      <c r="T18" s="28" t="str">
+        <f t="shared" si="17"/>
+        <v>Acústico</v>
+      </c>
+      <c r="U18" s="28" t="str">
+        <f t="shared" si="17"/>
+        <v>Suspenso</v>
+      </c>
+      <c r="V18" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="W18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Teto-18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="23">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Forro</v>
+      </c>
+      <c r="M19" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v>Acústico</v>
+      </c>
+      <c r="N19" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>Suspenso</v>
+      </c>
+      <c r="O19" s="21" t="str">
+        <f t="shared" si="16"/>
+        <v>Baffle.Cilíndrico</v>
+      </c>
+      <c r="P19" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q19" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" s="28" t="str">
+        <f t="shared" si="17"/>
+        <v>Forro</v>
+      </c>
+      <c r="T19" s="28" t="str">
+        <f t="shared" si="17"/>
+        <v>Acústico</v>
+      </c>
+      <c r="U19" s="28" t="str">
+        <f t="shared" si="17"/>
+        <v>Suspenso</v>
+      </c>
+      <c r="V19" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="W19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Teto-19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="23">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="26" t="str">
+        <f t="shared" ref="L20" si="18">CONCATENATE("", C20)</f>
+        <v>Forro</v>
+      </c>
+      <c r="M20" s="26" t="str">
+        <f t="shared" ref="M20" si="19">CONCATENATE("", D20)</f>
+        <v>Acústico</v>
+      </c>
+      <c r="N20" s="26" t="str">
+        <f t="shared" ref="N20" si="20">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E20),"."," ")," De "," de "))</f>
+        <v>Suspenso</v>
+      </c>
+      <c r="O20" s="21" t="str">
+        <f t="shared" ref="O20" si="21">F20</f>
         <v>Painel.Nuvem</v>
       </c>
-      <c r="P10" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q10" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="R10" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="S10" s="28" t="str">
-        <f t="shared" ref="S10" si="28">SUBSTITUTE(C10, ".", " ")</f>
+      <c r="P20" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="R20" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="28" t="str">
+        <f t="shared" si="17"/>
         <v>Forro</v>
       </c>
-      <c r="T10" s="28" t="str">
-        <f t="shared" ref="T10" si="29">SUBSTITUTE(D10, ".", " ")</f>
+      <c r="T20" s="28" t="str">
+        <f t="shared" si="17"/>
         <v>Acústico</v>
       </c>
-      <c r="U10" s="28" t="str">
-        <f t="shared" ref="U10" si="30">SUBSTITUTE(E10, ".", " ")</f>
+      <c r="U20" s="28" t="str">
+        <f t="shared" si="17"/>
         <v>Suspenso</v>
       </c>
-      <c r="V10" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="W10" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>Key-Teto-10</v>
+      <c r="V20" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="W20" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Teto-20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="72" priority="1239"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="1419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="71" priority="1204"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="1203"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="1202"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="1201"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="1200"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="1199"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="1379"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="1380"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="1381"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="1382"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="1383"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="1384"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F10">
-    <cfRule type="duplicateValues" dxfId="65" priority="2114"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="2113"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="2112"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="2111"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="2110"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="2109"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="2108"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="2107"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="2105"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="2104"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="2106"/>
+  <conditionalFormatting sqref="F13:F20">
+    <cfRule type="duplicateValues" dxfId="106" priority="2284"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="2285"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="2286"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="2287"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="2288"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="2289"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="2290"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="2291"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="2292"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="2293"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="2294"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="54" priority="1242"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="1241"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="1240"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="1244"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="1243"/>
+  <conditionalFormatting sqref="F21:F1048576 F1">
+    <cfRule type="duplicateValues" dxfId="95" priority="1420"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="1421"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="1422"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="1423"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="1424"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F1048576">
-    <cfRule type="duplicateValues" dxfId="49" priority="455"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="457"/>
+  <conditionalFormatting sqref="F21:F1048576">
+    <cfRule type="duplicateValues" dxfId="90" priority="635"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="637"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P4">
-    <cfRule type="duplicateValues" dxfId="47" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="100"/>
+  <conditionalFormatting sqref="P13:P14">
+    <cfRule type="duplicateValues" dxfId="88" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="281"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="282"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="289"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="290"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="9"/>
+  <conditionalFormatting sqref="P15">
+    <cfRule type="duplicateValues" dxfId="77" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="191"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P7">
-    <cfRule type="duplicateValues" dxfId="25" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="34"/>
+  <conditionalFormatting sqref="P16:P17">
+    <cfRule type="duplicateValues" dxfId="66" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="224"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P10">
-    <cfRule type="duplicateValues" dxfId="14" priority="2062"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="2063"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="2064"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="2065"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="2061"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="2067"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2068"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="2069"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="2070"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="2071"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2066"/>
+  <conditionalFormatting sqref="P18:P20">
+    <cfRule type="duplicateValues" dxfId="55" priority="2241"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="2242"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="2243"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="2244"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="2245"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="2246"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="2247"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="2248"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="2249"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="2250"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="2251"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F8">
+    <cfRule type="duplicateValues" dxfId="44" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="duplicateValues" dxfId="33" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="duplicateValues" dxfId="28" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P8">
+    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3572,14 +6420,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A426B82-2E19-47C6-9DDF-914E7B26E6D0}">
-  <dimension ref="A1:AS11"/>
+  <dimension ref="A1:AS12"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="7.3" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.765625" style="61" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.4609375" style="55" bestFit="1" customWidth="1"/>
@@ -3595,7 +6443,7 @@
     <col min="12" max="12" width="2.3828125" style="61" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.84375" style="61" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.3828125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.61328125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69140625" style="61" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.07421875" style="61" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.3046875" style="61" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.4609375" style="61" bestFit="1" customWidth="1"/>
@@ -3628,7 +6476,7 @@
     <col min="46" max="16384" width="9.23046875" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="66" customFormat="1" ht="22.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:45" s="66" customFormat="1" ht="24.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="63" t="s">
         <v>10</v>
       </c>
@@ -3765,21 +6613,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="48" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:45" s="48" customFormat="1" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="42">
         <v>2</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>88</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>9</v>
@@ -3902,21 +6750,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="48" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:45" s="48" customFormat="1" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="42">
         <v>3</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F3" s="45" t="s">
         <v>9</v>
@@ -4039,21 +6887,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="48" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:45" s="48" customFormat="1" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="42">
         <v>4</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>9</v>
@@ -4176,21 +7024,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="42">
         <v>5</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>9</v>
@@ -4217,16 +7065,16 @@
         <v>9</v>
       </c>
       <c r="N5" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O5" s="47" t="s">
         <v>9</v>
       </c>
       <c r="P5" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R5" s="45" t="s">
         <v>9</v>
@@ -4313,21 +7161,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="42">
         <v>6</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>9</v>
@@ -4354,16 +7202,16 @@
         <v>9</v>
       </c>
       <c r="N6" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O6" s="47" t="s">
         <v>9</v>
       </c>
       <c r="P6" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q6" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R6" s="45" t="s">
         <v>9</v>
@@ -4450,21 +7298,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="42">
         <v>7</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="45" t="s">
         <v>9</v>
@@ -4491,16 +7339,16 @@
         <v>9</v>
       </c>
       <c r="N7" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O7" s="47" t="s">
         <v>9</v>
       </c>
       <c r="P7" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R7" s="45" t="s">
         <v>9</v>
@@ -4587,58 +7435,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="42">
         <v>8</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="O8" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q8" s="47" t="s">
-        <v>107</v>
-      </c>
       <c r="R8" s="45" t="s">
         <v>9</v>
       </c>
@@ -4724,99 +7572,99 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="42">
         <v>9</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>116</v>
+        <v>173</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>174</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="47">
-        <v>3.5</v>
+        <v>9</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" s="56">
-        <v>62.5</v>
+        <v>9</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="K9" s="56">
-        <v>125</v>
-      </c>
-      <c r="L9" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="47" t="s">
         <v>9</v>
       </c>
       <c r="N9" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="O9" s="58" t="s">
-        <v>144</v>
+        <v>97</v>
+      </c>
+      <c r="O9" s="47" t="s">
+        <v>176</v>
       </c>
       <c r="P9" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q9" s="47" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="R9" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="S9" s="47">
-        <v>0.15</v>
+        <v>9</v>
+      </c>
+      <c r="S9" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="T9" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="U9" s="47">
-        <v>0.48</v>
+        <v>9</v>
+      </c>
+      <c r="U9" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="V9" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="W9" s="47">
-        <v>0.76</v>
+        <v>9</v>
+      </c>
+      <c r="W9" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="X9" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y9" s="47">
-        <v>0.86</v>
+        <v>9</v>
+      </c>
+      <c r="Y9" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="Z9" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA9" s="47">
-        <v>1.08</v>
+        <v>9</v>
+      </c>
+      <c r="AA9" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="AB9" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC9" s="47">
-        <v>1.03</v>
+        <v>9</v>
+      </c>
+      <c r="AC9" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="AD9" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE9" s="47">
-        <v>0.8</v>
+        <v>9</v>
+      </c>
+      <c r="AE9" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="AF9" s="45" t="s">
         <v>9</v>
@@ -4861,36 +7709,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="42">
         <v>10</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="47">
         <v>3.5</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I10" s="56">
-        <v>31.2</v>
+        <v>62.5</v>
       </c>
       <c r="J10" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K10" s="56">
         <v>125</v>
@@ -4902,55 +7750,55 @@
         <v>9</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O10" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="P10" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q10" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="R10" s="45" t="s">
         <v>144</v>
-      </c>
-      <c r="P10" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q10" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="R10" s="45" t="s">
-        <v>146</v>
       </c>
       <c r="S10" s="47">
         <v>0.15</v>
       </c>
       <c r="T10" s="45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U10" s="47">
         <v>0.48</v>
       </c>
       <c r="V10" s="45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="W10" s="47">
         <v>0.76</v>
       </c>
       <c r="X10" s="45" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Y10" s="47">
         <v>0.86</v>
       </c>
       <c r="Z10" s="45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA10" s="47">
         <v>1.08</v>
       </c>
       <c r="AB10" s="45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AC10" s="47">
         <v>1.03</v>
       </c>
       <c r="AD10" s="45" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AE10" s="47">
         <v>0.8</v>
@@ -4998,36 +7846,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="42">
         <v>11</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" s="47">
         <v>3.5</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I11" s="56">
-        <v>15.6</v>
+        <v>31.2</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K11" s="56">
         <v>125</v>
@@ -5039,55 +7887,55 @@
         <v>9</v>
       </c>
       <c r="N11" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O11" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="P11" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="R11" s="45" t="s">
         <v>144</v>
-      </c>
-      <c r="P11" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q11" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="R11" s="45" t="s">
-        <v>146</v>
       </c>
       <c r="S11" s="47">
         <v>0.15</v>
       </c>
       <c r="T11" s="45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U11" s="47">
         <v>0.48</v>
       </c>
       <c r="V11" s="45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="W11" s="47">
         <v>0.76</v>
       </c>
       <c r="X11" s="45" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Y11" s="47">
         <v>0.86</v>
       </c>
       <c r="Z11" s="45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA11" s="47">
         <v>1.08</v>
       </c>
       <c r="AB11" s="45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AC11" s="47">
         <v>1.03</v>
       </c>
       <c r="AD11" s="45" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AE11" s="47">
         <v>0.8</v>
@@ -5132,6 +7980,143 @@
         <v>9</v>
       </c>
       <c r="AS11" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="42">
+        <v>12</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="47">
+        <v>3.5</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="56">
+        <v>15.6</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="56">
+        <v>125</v>
+      </c>
+      <c r="L12" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="O12" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="R12" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="S12" s="47">
+        <v>0.15</v>
+      </c>
+      <c r="T12" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="U12" s="47">
+        <v>0.48</v>
+      </c>
+      <c r="V12" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="W12" s="47">
+        <v>0.76</v>
+      </c>
+      <c r="X12" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y12" s="47">
+        <v>0.86</v>
+      </c>
+      <c r="Z12" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA12" s="47">
+        <v>1.08</v>
+      </c>
+      <c r="AB12" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC12" s="47">
+        <v>1.03</v>
+      </c>
+      <c r="AD12" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE12" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="AF12" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG12" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH12" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI12" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ12" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK12" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL12" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM12" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN12" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO12" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP12" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ12" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR12" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS12" s="47" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Versão5/TETO/Ontologia_TETOS.xlsx
+++ b/Versão5/TETO/Ontologia_TETOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\TETO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1A7E96-D23C-4E81-80FE-3A04785CA9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60B8FAE-D05D-4B91-921D-8672823B2C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="213">
   <si>
     <t>EquivalentTo: 
 Raiz
@@ -441,9 +441,6 @@
     <t>Forro acústico suspenso tipo baffle linear para absorção sonora.</t>
   </si>
   <si>
-    <t>Forro acústico suspenso tipo nuvem com formatos diversos para absorção sonora.</t>
-  </si>
-  <si>
     <t>Adesivado</t>
   </si>
   <si>
@@ -462,9 +459,6 @@
     <t>Forro acústico adesivado tipo placa com formatos diversos para absorção sonora.</t>
   </si>
   <si>
-    <t>Painel.Nuvem</t>
-  </si>
-  <si>
     <t>Techo de yeso aplicado sobre el techo.</t>
   </si>
   <si>
@@ -486,9 +480,6 @@
     <t>Suspendido acústico de techo tipo bafle cilíndrico para absorción acústica.</t>
   </si>
   <si>
-    <t>Techo acústico suspendido tipo nube con diferentes formas para la absorción del sonido.</t>
-  </si>
-  <si>
     <t>ARG.1.02.6</t>
   </si>
   <si>
@@ -661,6 +652,66 @@
   </si>
   <si>
     <t>Aplicado</t>
+  </si>
+  <si>
+    <t>"Baffle acústico retangular da Divisystem suspenso tipo linear para absorção sonora."</t>
+  </si>
+  <si>
+    <t>"DiviSystem"</t>
+  </si>
+  <si>
+    <t>Nuvem.Quadrada</t>
+  </si>
+  <si>
+    <t>Nuvem.Circular</t>
+  </si>
+  <si>
+    <t>Nuvem.Geométrica</t>
+  </si>
+  <si>
+    <t>Forro acústico suspenso tipo baffle quadrado para absorção sonora.</t>
+  </si>
+  <si>
+    <t>Forro acústico suspenso tipo nuvem com geometrias diversas para absorção sonora.</t>
+  </si>
+  <si>
+    <t>Techo acústico suspendido tipo nube con diferentes formas gemtétricas para la absorción del sonido.</t>
+  </si>
+  <si>
+    <t>BAF.80x20</t>
+  </si>
+  <si>
+    <t>BAF.80x120</t>
+  </si>
+  <si>
+    <t>BAF.120x20</t>
+  </si>
+  <si>
+    <t>BAF.120x40</t>
+  </si>
+  <si>
+    <t>BAF.180x40</t>
+  </si>
+  <si>
+    <t>largura</t>
+  </si>
+  <si>
+    <t>diámetro</t>
+  </si>
+  <si>
+    <t>"Nuvem acústica quadrada da Divisystem suspenso tipo linear para absorção sonora cor branca."</t>
+  </si>
+  <si>
+    <t>"Nuvem acústica circular da Divisystem suspenso tipo linear para absorção sonora cor branca."</t>
+  </si>
+  <si>
+    <t>NAC.120x120</t>
+  </si>
+  <si>
+    <t>NAC.120</t>
+  </si>
+  <si>
+    <t>Arquitetura</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1229,117 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="263">
+  <dxfs count="125">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1214,1496 +1375,6 @@
         <strike val="0"/>
         <color rgb="FFFFFFFF"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4272,7 +2943,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="9.5500000000000007" customHeight="1" x14ac:dyDescent="0.4">
@@ -4386,7 +3057,7 @@
         <v>67</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9.5500000000000007" customHeight="1" x14ac:dyDescent="0.4">
@@ -4395,7 +3066,7 @@
       </c>
       <c r="B18" s="39">
         <f ca="1">NOW()</f>
-        <v>45915.424236921295</v>
+        <v>45915.57070300926</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.5500000000000007" customHeight="1" x14ac:dyDescent="0.4">
@@ -4427,7 +3098,7 @@
         <v>73</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="9.5500000000000007" customHeight="1" x14ac:dyDescent="0.4">
@@ -4435,7 +3106,7 @@
         <v>74</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4445,12 +3116,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96052D63-9637-42D9-866B-0BB924A50D8C}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A179" sqref="A179:XFD190"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4460,7 +3131,7 @@
     <col min="3" max="3" width="4.23046875" customWidth="1"/>
     <col min="4" max="4" width="5.921875" customWidth="1"/>
     <col min="5" max="5" width="5.84375" customWidth="1"/>
-    <col min="6" max="6" width="7.61328125" customWidth="1"/>
+    <col min="6" max="6" width="9.07421875" customWidth="1"/>
     <col min="7" max="11" width="5.53515625" style="29" customWidth="1"/>
     <col min="12" max="12" width="3.921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.69140625" customWidth="1"/>
@@ -4470,8 +3141,9 @@
     <col min="17" max="17" width="50.84375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3" style="68" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.3828125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.15234375" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.61328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.84375" customWidth="1"/>
+    <col min="21" max="21" width="5.61328125" customWidth="1"/>
+    <col min="22" max="22" width="5.53515625" customWidth="1"/>
     <col min="23" max="23" width="5.23046875" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4636,13 +3308,13 @@
         <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>9</v>
@@ -4676,10 +3348,10 @@
         <v>Assentamento</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>9</v>
@@ -4697,10 +3369,10 @@
         <v>Argamassa</v>
       </c>
       <c r="V3" s="28" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W20" si="4">CONCATENATE("Key-Teto-",A3)</f>
+        <f t="shared" ref="W3:W22" si="4">CONCATENATE("Key-Teto-",A3)</f>
         <v>Key-Teto-3</v>
       </c>
     </row>
@@ -4715,13 +3387,13 @@
         <v>107</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>9</v>
@@ -4755,10 +3427,10 @@
         <v>Chapisco</v>
       </c>
       <c r="P4" s="41" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="40" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="R4" s="27" t="s">
         <v>9</v>
@@ -4776,7 +3448,7 @@
         <v>Argamassa</v>
       </c>
       <c r="V4" s="28" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4794,13 +3466,13 @@
         <v>107</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G5" s="30" t="s">
         <v>9</v>
@@ -4834,10 +3506,10 @@
         <v>Emboço</v>
       </c>
       <c r="P5" s="41" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="40" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="R5" s="27" t="s">
         <v>9</v>
@@ -4855,7 +3527,7 @@
         <v>Argamassa</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W5" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4873,13 +3545,13 @@
         <v>107</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>9</v>
@@ -4913,10 +3585,10 @@
         <v>Reboco</v>
       </c>
       <c r="P6" s="41" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q6" s="40" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="R6" s="27" t="s">
         <v>9</v>
@@ -4934,7 +3606,7 @@
         <v>Argamassa</v>
       </c>
       <c r="V6" s="28" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W6" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4952,10 +3624,10 @@
         <v>107</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>96</v>
@@ -4992,10 +3664,10 @@
         <v>Niveladora</v>
       </c>
       <c r="P7" s="41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="R7" s="27" t="s">
         <v>9</v>
@@ -5013,7 +3685,7 @@
         <v>Argamassa</v>
       </c>
       <c r="V7" s="28" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W7" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5031,10 +3703,10 @@
         <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>95</v>
@@ -5071,10 +3743,10 @@
         <v>Colante</v>
       </c>
       <c r="P8" s="41" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="40" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R8" s="27" t="s">
         <v>9</v>
@@ -5092,7 +3764,7 @@
         <v>Argamassa</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W8" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5110,13 +3782,13 @@
         <v>107</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="67" t="s">
         <v>161</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="67" t="s">
-        <v>164</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>9</v>
@@ -5150,10 +3822,10 @@
         <v>Graute</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="R9" s="27" t="s">
         <v>9</v>
@@ -5171,7 +3843,7 @@
         <v>Argamassa</v>
       </c>
       <c r="V9" s="28" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W9" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5189,13 +3861,13 @@
         <v>107</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F10" s="67" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>9</v>
@@ -5229,10 +3901,10 @@
         <v>Polimérica</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R10" s="27" t="s">
         <v>9</v>
@@ -5250,7 +3922,7 @@
         <v>Argamassa</v>
       </c>
       <c r="V10" s="28" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W10" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5268,13 +3940,13 @@
         <v>107</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F11" s="67" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>9</v>
@@ -5308,10 +3980,10 @@
         <v>Rejunte</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="R11" s="27" t="s">
         <v>9</v>
@@ -5329,7 +4001,7 @@
         <v>Argamassa</v>
       </c>
       <c r="V11" s="28" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W11" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5347,13 +4019,13 @@
         <v>107</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F12" s="67" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>9</v>
@@ -5387,10 +4059,10 @@
         <v>Baritada</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R12" s="27" t="s">
         <v>9</v>
@@ -5408,7 +4080,7 @@
         <v>Argamassa</v>
       </c>
       <c r="V12" s="28" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W12" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5426,7 +4098,7 @@
         <v>107</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>109</v>
@@ -5469,7 +4141,7 @@
         <v>118</v>
       </c>
       <c r="Q13" s="40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R13" s="27" t="s">
         <v>9</v>
@@ -5487,7 +4159,7 @@
         <v>Moldado</v>
       </c>
       <c r="V13" s="28" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W13" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5505,7 +4177,7 @@
         <v>107</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>109</v>
@@ -5548,7 +4220,7 @@
         <v>119</v>
       </c>
       <c r="Q14" s="40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R14" s="27" t="s">
         <v>9</v>
@@ -5566,7 +4238,7 @@
         <v>Moldado</v>
       </c>
       <c r="V14" s="28" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W14" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5587,7 +4259,7 @@
         <v>112</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>111</v>
@@ -5627,7 +4299,7 @@
         <v>117</v>
       </c>
       <c r="Q15" s="40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R15" s="27" t="s">
         <v>9</v>
@@ -5645,7 +4317,7 @@
         <v>Modular</v>
       </c>
       <c r="V15" s="28" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W15" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5666,7 +4338,7 @@
         <v>115</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>113</v>
@@ -5703,10 +4375,10 @@
         <v>Placa.3D</v>
       </c>
       <c r="P16" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R16" s="27" t="s">
         <v>9</v>
@@ -5724,7 +4396,7 @@
         <v>Adesivado</v>
       </c>
       <c r="V16" s="28" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W16" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5745,10 +4417,10 @@
         <v>115</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>123</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>124</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>9</v>
@@ -5782,10 +4454,10 @@
         <v>Placa.Shell</v>
       </c>
       <c r="P17" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q17" s="40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R17" s="27" t="s">
         <v>9</v>
@@ -5803,7 +4475,7 @@
         <v>Adesivado</v>
       </c>
       <c r="V17" s="28" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W17" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5824,10 +4496,10 @@
         <v>115</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>9</v>
@@ -5845,44 +4517,44 @@
         <v>9</v>
       </c>
       <c r="L18" s="26" t="str">
-        <f t="shared" ref="L18:L19" si="13">CONCATENATE("", C18)</f>
+        <f t="shared" ref="L18" si="13">CONCATENATE("", C18)</f>
         <v>Forro</v>
       </c>
       <c r="M18" s="26" t="str">
-        <f t="shared" ref="M18:M19" si="14">CONCATENATE("", D18)</f>
+        <f t="shared" ref="M18" si="14">CONCATENATE("", D18)</f>
         <v>Acústico</v>
       </c>
       <c r="N18" s="26" t="str">
-        <f t="shared" ref="N18:N19" si="15">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E18),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N18" si="15">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E18),"."," ")," De "," de "))</f>
         <v>Suspenso</v>
       </c>
       <c r="O18" s="21" t="str">
-        <f t="shared" ref="O18:O19" si="16">F18</f>
-        <v>Baffle.Linear</v>
+        <f t="shared" ref="O18" si="16">F18</f>
+        <v>Baffle.Cilíndrico</v>
       </c>
       <c r="P18" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R18" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S18" s="28" t="str">
-        <f t="shared" ref="S18:U20" si="17">SUBSTITUTE(C18, ".", " ")</f>
+        <f t="shared" ref="S18" si="17">SUBSTITUTE(C18, ".", " ")</f>
         <v>Forro</v>
       </c>
       <c r="T18" s="28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="T18" si="18">SUBSTITUTE(D18, ".", " ")</f>
         <v>Acústico</v>
       </c>
       <c r="U18" s="28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="U18" si="19">SUBSTITUTE(E18, ".", " ")</f>
         <v>Suspenso</v>
       </c>
       <c r="V18" s="28" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W18" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5903,10 +4575,10 @@
         <v>115</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>9</v>
@@ -5924,44 +4596,44 @@
         <v>9</v>
       </c>
       <c r="L19" s="26" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="L19:L21" si="20">CONCATENATE("", C19)</f>
         <v>Forro</v>
       </c>
       <c r="M19" s="26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="M19:M21" si="21">CONCATENATE("", D19)</f>
         <v>Acústico</v>
       </c>
       <c r="N19" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="N19:N21" si="22">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E19),"."," ")," De "," de "))</f>
         <v>Suspenso</v>
       </c>
       <c r="O19" s="21" t="str">
-        <f t="shared" si="16"/>
-        <v>Baffle.Cilíndrico</v>
+        <f t="shared" ref="O19:O21" si="23">F19</f>
+        <v>Baffle.Linear</v>
       </c>
       <c r="P19" s="41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R19" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S19" s="28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="S19:U22" si="24">SUBSTITUTE(C19, ".", " ")</f>
         <v>Forro</v>
       </c>
       <c r="T19" s="28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>Acústico</v>
       </c>
       <c r="U19" s="28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>Suspenso</v>
       </c>
       <c r="V19" s="28" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W19" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5982,10 +4654,10 @@
         <v>115</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>9</v>
@@ -6003,191 +4675,360 @@
         <v>9</v>
       </c>
       <c r="L20" s="26" t="str">
-        <f t="shared" ref="L20" si="18">CONCATENATE("", C20)</f>
+        <f t="shared" ref="L20" si="25">CONCATENATE("", C20)</f>
         <v>Forro</v>
       </c>
       <c r="M20" s="26" t="str">
-        <f t="shared" ref="M20" si="19">CONCATENATE("", D20)</f>
+        <f t="shared" ref="M20" si="26">CONCATENATE("", D20)</f>
         <v>Acústico</v>
       </c>
       <c r="N20" s="26" t="str">
-        <f t="shared" ref="N20" si="20">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E20),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N20" si="27">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E20),"."," ")," De "," de "))</f>
         <v>Suspenso</v>
       </c>
       <c r="O20" s="21" t="str">
-        <f t="shared" ref="O20" si="21">F20</f>
-        <v>Painel.Nuvem</v>
+        <f t="shared" ref="O20" si="28">F20</f>
+        <v>Nuvem.Quadrada</v>
       </c>
       <c r="P20" s="41" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="Q20" s="40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R20" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S20" s="28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="S20" si="29">SUBSTITUTE(C20, ".", " ")</f>
         <v>Forro</v>
       </c>
       <c r="T20" s="28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="T20" si="30">SUBSTITUTE(D20, ".", " ")</f>
         <v>Acústico</v>
       </c>
       <c r="U20" s="28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="U20" si="31">SUBSTITUTE(E20, ".", " ")</f>
         <v>Suspenso</v>
       </c>
       <c r="V20" s="28" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W20" s="1" t="str">
+        <f t="shared" ref="W20" si="32">CONCATENATE("Key-Teto-",A20)</f>
+        <v>Key-Teto-20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="23">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>Forro</v>
+      </c>
+      <c r="M21" s="26" t="str">
+        <f t="shared" si="21"/>
+        <v>Acústico</v>
+      </c>
+      <c r="N21" s="26" t="str">
+        <f t="shared" si="22"/>
+        <v>Suspenso</v>
+      </c>
+      <c r="O21" s="21" t="str">
+        <f t="shared" si="23"/>
+        <v>Nuvem.Circular</v>
+      </c>
+      <c r="P21" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q21" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="R21" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v>Forro</v>
+      </c>
+      <c r="T21" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v>Acústico</v>
+      </c>
+      <c r="U21" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v>Suspenso</v>
+      </c>
+      <c r="V21" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="W21" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Key-Teto-20</v>
+        <v>Key-Teto-21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="23">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="26" t="str">
+        <f t="shared" ref="L22" si="33">CONCATENATE("", C22)</f>
+        <v>Forro</v>
+      </c>
+      <c r="M22" s="26" t="str">
+        <f t="shared" ref="M22" si="34">CONCATENATE("", D22)</f>
+        <v>Acústico</v>
+      </c>
+      <c r="N22" s="26" t="str">
+        <f t="shared" ref="N22" si="35">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E22),"."," ")," De "," de "))</f>
+        <v>Suspenso</v>
+      </c>
+      <c r="O22" s="21" t="str">
+        <f t="shared" ref="O22" si="36">F22</f>
+        <v>Nuvem.Geométrica</v>
+      </c>
+      <c r="P22" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q22" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="R22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v>Forro</v>
+      </c>
+      <c r="T22" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v>Acústico</v>
+      </c>
+      <c r="U22" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v>Suspenso</v>
+      </c>
+      <c r="V22" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="W22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Teto-22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="113" priority="1419"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="1441"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="123" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="112" priority="1379"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="1380"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="1381"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="1382"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="1383"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="1384"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="1401"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="1402"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="1403"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="1404"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="1405"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="1406"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F20">
-    <cfRule type="duplicateValues" dxfId="106" priority="2284"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="2285"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="2286"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="2287"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="2288"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="2289"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="2290"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="2291"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="2292"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="2293"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="2294"/>
+  <conditionalFormatting sqref="F3:F8">
+    <cfRule type="duplicateValues" dxfId="116" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="95" priority="1420"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="1421"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="1422"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="1423"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="1424"/>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="duplicateValues" dxfId="105" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F1048576">
-    <cfRule type="duplicateValues" dxfId="90" priority="635"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="637"/>
+  <conditionalFormatting sqref="F23:F1048576 F1">
+    <cfRule type="duplicateValues" dxfId="98" priority="1442"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="1443"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="1444"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="1445"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="1446"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F1048576">
+    <cfRule type="duplicateValues" dxfId="93" priority="657"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="659"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P8">
+    <cfRule type="duplicateValues" dxfId="91" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:P14">
-    <cfRule type="duplicateValues" dxfId="88" priority="280"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="281"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="282"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="283"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="284"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="285"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="286"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="287"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="288"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="289"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="290"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="302"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="303"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="308"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="309"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="310"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="duplicateValues" dxfId="77" priority="181"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="182"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="183"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="184"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="185"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="186"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="187"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="189"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="190"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:P17">
-    <cfRule type="duplicateValues" dxfId="66" priority="214"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="215"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="216"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="218"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="219"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="220"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="221"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="222"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="223"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="246"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P18:P20">
-    <cfRule type="duplicateValues" dxfId="55" priority="2241"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="2242"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="2243"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="2244"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="2245"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="2246"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="2247"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="2248"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="2249"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="2250"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="2251"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F8">
-    <cfRule type="duplicateValues" dxfId="44" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
-    <cfRule type="duplicateValues" dxfId="33" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
-    <cfRule type="duplicateValues" dxfId="28" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P8">
-    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="30"/>
+  <conditionalFormatting sqref="P19:P22">
+    <cfRule type="duplicateValues" dxfId="47" priority="2263"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="2264"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="2265"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="2266"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="2267"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="2268"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="2269"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2270"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="2271"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="2272"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="2273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  <conditionalFormatting sqref="P18">
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F22">
+    <cfRule type="duplicateValues" dxfId="10" priority="2320"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2321"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2322"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2323"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2324"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2325"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2326"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2327"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2328"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2329"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2330"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6406,7 +5247,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6420,23 +5261,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A426B82-2E19-47C6-9DDF-914E7B26E6D0}">
-  <dimension ref="A1:AS12"/>
+  <dimension ref="A1:AS19"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="7.3" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.765625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.4609375" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.15234375" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="55" customWidth="1"/>
+    <col min="3" max="3" width="7" style="55" customWidth="1"/>
     <col min="4" max="4" width="4.07421875" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.3046875" style="62" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.3046875" style="61" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.84375" style="61" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.53515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.07421875" style="61" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.84375" style="61" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.4609375" style="61" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.84375" style="61" bestFit="1" customWidth="1"/>
@@ -6618,7 +5459,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>88</v>
@@ -6627,7 +5468,7 @@
         <v>90</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>9</v>
@@ -6755,7 +5596,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C3" s="50" t="s">
         <v>96</v>
@@ -6764,7 +5605,7 @@
         <v>90</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F3" s="45" t="s">
         <v>9</v>
@@ -6892,7 +5733,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C4" s="50" t="s">
         <v>96</v>
@@ -6901,7 +5742,7 @@
         <v>90</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>9</v>
@@ -7577,16 +6418,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F9" s="45" t="s">
         <v>9</v>
@@ -7616,13 +6457,13 @@
         <v>97</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P9" s="45" t="s">
         <v>92</v>
       </c>
       <c r="Q9" s="47" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="R9" s="45" t="s">
         <v>9</v>
@@ -7714,7 +6555,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C10" s="59" t="s">
         <v>114</v>
@@ -7723,7 +6564,7 @@
         <v>90</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F10" s="45" t="s">
         <v>93</v>
@@ -7732,7 +6573,7 @@
         <v>3.5</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I10" s="56">
         <v>62.5</v>
@@ -7753,52 +6594,52 @@
         <v>97</v>
       </c>
       <c r="O10" s="58" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P10" s="45" t="s">
         <v>92</v>
       </c>
       <c r="Q10" s="47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="R10" s="45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="S10" s="47">
         <v>0.15</v>
       </c>
       <c r="T10" s="45" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U10" s="47">
         <v>0.48</v>
       </c>
       <c r="V10" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W10" s="47">
         <v>0.76</v>
       </c>
       <c r="X10" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y10" s="47">
         <v>0.86</v>
       </c>
       <c r="Z10" s="45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AA10" s="47">
         <v>1.08</v>
       </c>
       <c r="AB10" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AC10" s="47">
         <v>1.03</v>
       </c>
       <c r="AD10" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AE10" s="47">
         <v>0.8</v>
@@ -7851,7 +6692,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C11" s="59" t="s">
         <v>114</v>
@@ -7860,7 +6701,7 @@
         <v>90</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F11" s="45" t="s">
         <v>93</v>
@@ -7869,7 +6710,7 @@
         <v>3.5</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I11" s="56">
         <v>31.2</v>
@@ -7890,52 +6731,52 @@
         <v>97</v>
       </c>
       <c r="O11" s="58" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P11" s="45" t="s">
         <v>92</v>
       </c>
       <c r="Q11" s="47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="R11" s="45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="S11" s="47">
         <v>0.15</v>
       </c>
       <c r="T11" s="45" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U11" s="47">
         <v>0.48</v>
       </c>
       <c r="V11" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W11" s="47">
         <v>0.76</v>
       </c>
       <c r="X11" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y11" s="47">
         <v>0.86</v>
       </c>
       <c r="Z11" s="45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AA11" s="47">
         <v>1.08</v>
       </c>
       <c r="AB11" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AC11" s="47">
         <v>1.03</v>
       </c>
       <c r="AD11" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AE11" s="47">
         <v>0.8</v>
@@ -7988,7 +6829,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C12" s="59" t="s">
         <v>114</v>
@@ -7997,7 +6838,7 @@
         <v>90</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>93</v>
@@ -8006,7 +6847,7 @@
         <v>3.5</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I12" s="56">
         <v>15.6</v>
@@ -8027,52 +6868,52 @@
         <v>97</v>
       </c>
       <c r="O12" s="58" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P12" s="45" t="s">
         <v>92</v>
       </c>
       <c r="Q12" s="47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="R12" s="45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="S12" s="47">
         <v>0.15</v>
       </c>
       <c r="T12" s="45" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U12" s="47">
         <v>0.48</v>
       </c>
       <c r="V12" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W12" s="47">
         <v>0.76</v>
       </c>
       <c r="X12" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y12" s="47">
         <v>0.86</v>
       </c>
       <c r="Z12" s="45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AA12" s="47">
         <v>1.08</v>
       </c>
       <c r="AB12" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AC12" s="47">
         <v>1.03</v>
       </c>
       <c r="AD12" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AE12" s="47">
         <v>0.8</v>
@@ -8117,6 +6958,965 @@
         <v>9</v>
       </c>
       <c r="AS12" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="42">
+        <v>13</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="47">
+        <v>4</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="56">
+        <v>20</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="56">
+        <v>80</v>
+      </c>
+      <c r="L13" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="R13" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="S13" s="47">
+        <v>0.71</v>
+      </c>
+      <c r="T13" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="U13" s="47">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="V13" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="W13" s="47">
+        <v>1.45</v>
+      </c>
+      <c r="X13" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y13" s="47">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="Z13" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA13" s="47">
+        <v>2.08</v>
+      </c>
+      <c r="AB13" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC13" s="47">
+        <v>1.96</v>
+      </c>
+      <c r="AD13" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE13" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF13" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG13" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH13" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI13" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ13" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK13" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL13" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM13" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN13" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO13" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP13" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ13" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR13" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS13" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="42">
+        <v>14</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="47">
+        <v>4</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="56">
+        <v>20</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="56">
+        <v>120</v>
+      </c>
+      <c r="L14" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="O14" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="P14" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="R14" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="S14" s="47">
+        <v>0.71</v>
+      </c>
+      <c r="T14" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="U14" s="47">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="V14" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="W14" s="47">
+        <v>1.45</v>
+      </c>
+      <c r="X14" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y14" s="47">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="Z14" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA14" s="47">
+        <v>2.08</v>
+      </c>
+      <c r="AB14" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC14" s="47">
+        <v>1.96</v>
+      </c>
+      <c r="AD14" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE14" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF14" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG14" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH14" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI14" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ14" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK14" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL14" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM14" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN14" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO14" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP14" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ14" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR14" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS14" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="42">
+        <v>15</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="47">
+        <v>4</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="56">
+        <v>20</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="56">
+        <v>120</v>
+      </c>
+      <c r="L15" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="O15" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="P15" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q15" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="R15" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="S15" s="47">
+        <v>0.71</v>
+      </c>
+      <c r="T15" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="U15" s="47">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="V15" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="W15" s="47">
+        <v>1.45</v>
+      </c>
+      <c r="X15" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y15" s="47">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="Z15" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA15" s="47">
+        <v>2.08</v>
+      </c>
+      <c r="AB15" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC15" s="47">
+        <v>1.96</v>
+      </c>
+      <c r="AD15" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE15" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF15" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG15" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH15" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI15" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ15" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK15" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL15" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM15" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN15" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO15" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP15" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ15" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR15" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS15" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="42">
+        <v>16</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="47">
+        <v>4</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="56">
+        <v>40</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="56">
+        <v>120</v>
+      </c>
+      <c r="L16" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="O16" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="R16" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="S16" s="47">
+        <v>0.71</v>
+      </c>
+      <c r="T16" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="U16" s="47">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="V16" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="W16" s="47">
+        <v>1.45</v>
+      </c>
+      <c r="X16" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y16" s="47">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="Z16" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA16" s="47">
+        <v>2.08</v>
+      </c>
+      <c r="AB16" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC16" s="47">
+        <v>1.96</v>
+      </c>
+      <c r="AD16" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE16" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF16" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG16" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH16" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI16" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ16" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK16" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL16" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM16" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN16" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO16" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP16" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ16" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR16" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS16" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="42">
+        <v>17</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="47">
+        <v>4</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="56">
+        <v>40</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="56">
+        <v>180</v>
+      </c>
+      <c r="L17" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="O17" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q17" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="R17" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="S17" s="47">
+        <v>0.71</v>
+      </c>
+      <c r="T17" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="U17" s="47">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="V17" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="W17" s="47">
+        <v>1.45</v>
+      </c>
+      <c r="X17" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y17" s="47">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="Z17" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA17" s="47">
+        <v>2.08</v>
+      </c>
+      <c r="AB17" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC17" s="47">
+        <v>1.96</v>
+      </c>
+      <c r="AD17" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE17" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF17" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG17" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH17" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI17" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ17" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK17" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL17" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM17" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN17" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO17" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP17" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ17" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR17" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS17" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="42">
+        <v>18</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="47">
+        <v>4</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="I18" s="56">
+        <v>120</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="56">
+        <v>120</v>
+      </c>
+      <c r="L18" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="O18" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="P18" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q18" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="R18" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="S18" s="47">
+        <v>0.71</v>
+      </c>
+      <c r="T18" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="U18" s="47">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="V18" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="W18" s="47">
+        <v>1.45</v>
+      </c>
+      <c r="X18" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y18" s="47">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="Z18" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA18" s="47">
+        <v>2.08</v>
+      </c>
+      <c r="AB18" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC18" s="47">
+        <v>1.96</v>
+      </c>
+      <c r="AD18" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE18" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF18" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG18" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH18" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI18" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ18" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK18" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL18" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM18" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN18" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO18" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP18" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ18" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR18" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS18" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="42">
+        <v>19</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="47">
+        <v>4</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="K19" s="56">
+        <v>120</v>
+      </c>
+      <c r="L19" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="O19" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="R19" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="S19" s="47">
+        <v>0.71</v>
+      </c>
+      <c r="T19" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="U19" s="47">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="V19" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="W19" s="47">
+        <v>1.45</v>
+      </c>
+      <c r="X19" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y19" s="47">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="Z19" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA19" s="47">
+        <v>2.08</v>
+      </c>
+      <c r="AB19" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC19" s="47">
+        <v>1.96</v>
+      </c>
+      <c r="AD19" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE19" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF19" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG19" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH19" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI19" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ19" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK19" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL19" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM19" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN19" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO19" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP19" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ19" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR19" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS19" s="47" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8193,15 +7993,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1 B3:G1048576 C2:G2">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 A1:B1">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/TETO/Ontologia_TETOS.xlsx
+++ b/Versão5/TETO/Ontologia_TETOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\TETO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60B8FAE-D05D-4B91-921D-8672823B2C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03530B9E-B603-4294-9C12-D524B27DBC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Interop" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$C$1:$C$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$C$1:$C$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Interop!$B$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="232">
   <si>
     <t>EquivalentTo: 
 Raiz
@@ -712,6 +712,63 @@
   </si>
   <si>
     <t>Arquitetura</t>
+  </si>
+  <si>
+    <t>Cola</t>
+  </si>
+  <si>
+    <t>Para.Madeira</t>
+  </si>
+  <si>
+    <t>Cola para madeira.</t>
+  </si>
+  <si>
+    <t>Pegamento para madera.</t>
+  </si>
+  <si>
+    <t>Para.Metais</t>
+  </si>
+  <si>
+    <t>Cola para metais.</t>
+  </si>
+  <si>
+    <t>Pegamento para metales.</t>
+  </si>
+  <si>
+    <t>Para.Texteis</t>
+  </si>
+  <si>
+    <t>Cola para texteis.</t>
+  </si>
+  <si>
+    <t>Pegamento para textiles.</t>
+  </si>
+  <si>
+    <t>Para.Espumas</t>
+  </si>
+  <si>
+    <t>Cola para espumas.</t>
+  </si>
+  <si>
+    <t>Pegamento para espumas.</t>
+  </si>
+  <si>
+    <t>Para.Louças</t>
+  </si>
+  <si>
+    <t>Cola para louças.</t>
+  </si>
+  <si>
+    <t>Pegamento para porcelanas.</t>
+  </si>
+  <si>
+    <t>Placa.Espuma</t>
+  </si>
+  <si>
+    <t>Forro acústico adesivado tipo placa de espuma acústica.</t>
+  </si>
+  <si>
+    <t>Placa de espuma acústica para adhesivar no teto.</t>
   </si>
 </sst>
 </file>
@@ -1229,117 +1286,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="125">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="159">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1375,6 +1322,456 @@
         <strike val="0"/>
         <color rgb="FFFFFFFF"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3066,7 +3463,7 @@
       </c>
       <c r="B18" s="39">
         <f ca="1">NOW()</f>
-        <v>45915.57070300926</v>
+        <v>45915.611449999997</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.5500000000000007" customHeight="1" x14ac:dyDescent="0.4">
@@ -3116,12 +3513,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96052D63-9637-42D9-866B-0BB924A50D8C}">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A179" sqref="A179:XFD190"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A22"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3144,7 +3541,7 @@
     <col min="20" max="20" width="5.84375" customWidth="1"/>
     <col min="21" max="21" width="5.61328125" customWidth="1"/>
     <col min="22" max="22" width="5.53515625" customWidth="1"/>
-    <col min="23" max="23" width="5.23046875" style="29" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.07421875" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="36" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3253,7 +3650,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="26" t="str">
-        <f t="shared" ref="L2:M12" si="0">CONCATENATE("", C2)</f>
+        <f t="shared" ref="L2:M17" si="0">CONCATENATE("", C2)</f>
         <v>Gestão</v>
       </c>
       <c r="M2" s="26" t="str">
@@ -3278,7 +3675,7 @@
         <v>9</v>
       </c>
       <c r="S2" s="28" t="str">
-        <f t="shared" ref="S2:U17" si="1">SUBSTITUTE(C2, ".", " ")</f>
+        <f t="shared" ref="S2:U23" si="1">SUBSTITUTE(C2, ".", " ")</f>
         <v>Gestão</v>
       </c>
       <c r="T2" s="28" t="str">
@@ -3311,10 +3708,10 @@
         <v>158</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>9</v>
@@ -3340,18 +3737,18 @@
         <v>Composição</v>
       </c>
       <c r="N3" s="26" t="str">
-        <f t="shared" ref="N3:N12" si="2">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E3),"."," ")," De "," de "))</f>
-        <v>Argamassa</v>
+        <f t="shared" ref="N3:N7" si="2">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E3),"."," ")," De "," de "))</f>
+        <v>Cola</v>
       </c>
       <c r="O3" s="21" t="str">
-        <f t="shared" ref="O3:O12" si="3">F3</f>
-        <v>Assentamento</v>
+        <f t="shared" ref="O3:O7" si="3">F3</f>
+        <v>Para.Madeira</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q3" s="40" t="s">
-        <v>179</v>
+        <v>215</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>216</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>9</v>
@@ -3366,13 +3763,13 @@
       </c>
       <c r="U3" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V3" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W22" si="4">CONCATENATE("Key-Teto-",A3)</f>
+        <f t="shared" ref="W3:W28" si="4">CONCATENATE("Key-Teto-",A3)</f>
         <v>Key-Teto-3</v>
       </c>
     </row>
@@ -3390,10 +3787,10 @@
         <v>158</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>9</v>
@@ -3420,17 +3817,17 @@
       </c>
       <c r="N4" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="O4" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Chapisco</v>
+        <v>Para.Metais</v>
       </c>
       <c r="P4" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q4" s="40" t="s">
-        <v>182</v>
+        <v>218</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>219</v>
       </c>
       <c r="R4" s="27" t="s">
         <v>9</v>
@@ -3445,7 +3842,7 @@
       </c>
       <c r="U4" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V4" s="28" t="s">
         <v>212</v>
@@ -3469,10 +3866,10 @@
         <v>158</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="G5" s="30" t="s">
         <v>9</v>
@@ -3499,17 +3896,17 @@
       </c>
       <c r="N5" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="O5" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Emboço</v>
+        <v>Para.Texteis</v>
       </c>
       <c r="P5" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q5" s="40" t="s">
-        <v>185</v>
+        <v>221</v>
+      </c>
+      <c r="Q5" s="41" t="s">
+        <v>222</v>
       </c>
       <c r="R5" s="27" t="s">
         <v>9</v>
@@ -3524,7 +3921,7 @@
       </c>
       <c r="U5" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V5" s="28" t="s">
         <v>212</v>
@@ -3548,10 +3945,10 @@
         <v>158</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>9</v>
@@ -3578,17 +3975,17 @@
       </c>
       <c r="N6" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="O6" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Reboco</v>
+        <v>Para.Espumas</v>
       </c>
       <c r="P6" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q6" s="40" t="s">
-        <v>188</v>
+        <v>224</v>
+      </c>
+      <c r="Q6" s="41" t="s">
+        <v>225</v>
       </c>
       <c r="R6" s="27" t="s">
         <v>9</v>
@@ -3603,7 +4000,7 @@
       </c>
       <c r="U6" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V6" s="28" t="s">
         <v>212</v>
@@ -3627,10 +4024,10 @@
         <v>158</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>9</v>
@@ -3657,17 +4054,17 @@
       </c>
       <c r="N7" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="O7" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Niveladora</v>
+        <v>Para.Louças</v>
       </c>
       <c r="P7" s="41" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="41" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="R7" s="27" t="s">
         <v>9</v>
@@ -3682,7 +4079,7 @@
       </c>
       <c r="U7" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V7" s="28" t="s">
         <v>212</v>
@@ -3709,7 +4106,7 @@
         <v>159</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>9</v>
@@ -3735,18 +4132,18 @@
         <v>Composição</v>
       </c>
       <c r="N8" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N8:N17" si="5">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E8),"."," ")," De "," de "))</f>
         <v>Argamassa</v>
       </c>
       <c r="O8" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Colante</v>
+        <f t="shared" ref="O8:O17" si="6">F8</f>
+        <v>Assentamento</v>
       </c>
       <c r="P8" s="41" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="40" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="R8" s="27" t="s">
         <v>9</v>
@@ -3787,8 +4184,8 @@
       <c r="E9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="67" t="s">
-        <v>161</v>
+      <c r="F9" s="25" t="s">
+        <v>180</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>9</v>
@@ -3814,18 +4211,18 @@
         <v>Composição</v>
       </c>
       <c r="N9" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Argamassa</v>
       </c>
       <c r="O9" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Graute</v>
-      </c>
-      <c r="P9" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q9" s="28" t="s">
-        <v>163</v>
+        <f t="shared" si="6"/>
+        <v>Chapisco</v>
+      </c>
+      <c r="P9" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q9" s="40" t="s">
+        <v>182</v>
       </c>
       <c r="R9" s="27" t="s">
         <v>9</v>
@@ -3866,8 +4263,8 @@
       <c r="E10" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="67" t="s">
-        <v>164</v>
+      <c r="F10" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>9</v>
@@ -3893,18 +4290,18 @@
         <v>Composição</v>
       </c>
       <c r="N10" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Argamassa</v>
       </c>
       <c r="O10" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Polimérica</v>
-      </c>
-      <c r="P10" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q10" s="28" t="s">
-        <v>166</v>
+        <f t="shared" si="6"/>
+        <v>Emboço</v>
+      </c>
+      <c r="P10" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q10" s="40" t="s">
+        <v>185</v>
       </c>
       <c r="R10" s="27" t="s">
         <v>9</v>
@@ -3945,8 +4342,8 @@
       <c r="E11" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="67" t="s">
-        <v>167</v>
+      <c r="F11" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>9</v>
@@ -3972,18 +4369,18 @@
         <v>Composição</v>
       </c>
       <c r="N11" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Argamassa</v>
       </c>
       <c r="O11" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Rejunte</v>
-      </c>
-      <c r="P11" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q11" s="28" t="s">
-        <v>169</v>
+        <f t="shared" si="6"/>
+        <v>Reboco</v>
+      </c>
+      <c r="P11" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q11" s="40" t="s">
+        <v>188</v>
       </c>
       <c r="R11" s="27" t="s">
         <v>9</v>
@@ -4024,8 +4421,8 @@
       <c r="E12" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F12" s="67" t="s">
-        <v>171</v>
+      <c r="F12" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>9</v>
@@ -4051,18 +4448,18 @@
         <v>Composição</v>
       </c>
       <c r="N12" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Argamassa</v>
       </c>
       <c r="O12" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Baritada</v>
-      </c>
-      <c r="P12" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q12" s="28" t="s">
-        <v>176</v>
+        <f t="shared" si="6"/>
+        <v>Niveladora</v>
+      </c>
+      <c r="P12" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q12" s="41" t="s">
+        <v>190</v>
       </c>
       <c r="R12" s="27" t="s">
         <v>9</v>
@@ -4098,13 +4495,13 @@
         <v>107</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>9</v>
@@ -4122,26 +4519,26 @@
         <v>9</v>
       </c>
       <c r="L13" s="26" t="str">
-        <f t="shared" ref="L13" si="5">CONCATENATE("", C13)</f>
+        <f t="shared" si="0"/>
         <v>Forro</v>
       </c>
       <c r="M13" s="26" t="str">
-        <f t="shared" ref="M13" si="6">CONCATENATE("", D13)</f>
-        <v>Aplicado</v>
+        <f t="shared" si="0"/>
+        <v>Composição</v>
       </c>
       <c r="N13" s="26" t="str">
-        <f t="shared" ref="N13" si="7">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E13),"."," ")," De "," de "))</f>
-        <v>Moldado</v>
+        <f t="shared" si="5"/>
+        <v>Argamassa</v>
       </c>
       <c r="O13" s="21" t="str">
-        <f t="shared" ref="O13" si="8">F13</f>
-        <v>Gesso</v>
+        <f t="shared" si="6"/>
+        <v>Colante</v>
       </c>
       <c r="P13" s="41" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="40" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="R13" s="27" t="s">
         <v>9</v>
@@ -4152,11 +4549,11 @@
       </c>
       <c r="T13" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Aplicado</v>
+        <v>Composição</v>
       </c>
       <c r="U13" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Moldado</v>
+        <v>Argamassa</v>
       </c>
       <c r="V13" s="28" t="s">
         <v>212</v>
@@ -4177,13 +4574,13 @@
         <v>107</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>110</v>
+        <v>159</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>161</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>9</v>
@@ -4201,26 +4598,26 @@
         <v>9</v>
       </c>
       <c r="L14" s="26" t="str">
-        <f t="shared" ref="L14:L17" si="9">CONCATENATE("", C14)</f>
+        <f t="shared" si="0"/>
         <v>Forro</v>
       </c>
       <c r="M14" s="26" t="str">
-        <f t="shared" ref="M14:M17" si="10">CONCATENATE("", D14)</f>
-        <v>Aplicado</v>
+        <f t="shared" si="0"/>
+        <v>Composição</v>
       </c>
       <c r="N14" s="26" t="str">
-        <f t="shared" ref="N14:N17" si="11">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E14),"."," ")," De "," de "))</f>
-        <v>Moldado</v>
+        <f t="shared" si="5"/>
+        <v>Argamassa</v>
       </c>
       <c r="O14" s="21" t="str">
-        <f t="shared" ref="O14:O17" si="12">F14</f>
-        <v>Gesso.Emplacado</v>
-      </c>
-      <c r="P14" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q14" s="40" t="s">
-        <v>129</v>
+        <f t="shared" si="6"/>
+        <v>Graute</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q14" s="28" t="s">
+        <v>163</v>
       </c>
       <c r="R14" s="27" t="s">
         <v>9</v>
@@ -4231,11 +4628,11 @@
       </c>
       <c r="T14" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Aplicado</v>
+        <v>Composição</v>
       </c>
       <c r="U14" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Moldado</v>
+        <v>Argamassa</v>
       </c>
       <c r="V14" s="28" t="s">
         <v>212</v>
@@ -4256,13 +4653,13 @@
         <v>107</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>111</v>
+        <v>159</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>164</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>9</v>
@@ -4280,26 +4677,26 @@
         <v>9</v>
       </c>
       <c r="L15" s="26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>Forro</v>
       </c>
       <c r="M15" s="26" t="str">
-        <f t="shared" si="10"/>
-        <v>Removível</v>
+        <f t="shared" si="0"/>
+        <v>Composição</v>
       </c>
       <c r="N15" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v>Modular</v>
+        <f t="shared" si="5"/>
+        <v>Argamassa</v>
       </c>
       <c r="O15" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v>Placa.EPS</v>
-      </c>
-      <c r="P15" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q15" s="40" t="s">
-        <v>130</v>
+        <f t="shared" si="6"/>
+        <v>Polimérica</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q15" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="R15" s="27" t="s">
         <v>9</v>
@@ -4310,11 +4707,11 @@
       </c>
       <c r="T15" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Removível</v>
+        <v>Composição</v>
       </c>
       <c r="U15" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Modular</v>
+        <v>Argamassa</v>
       </c>
       <c r="V15" s="28" t="s">
         <v>212</v>
@@ -4335,13 +4732,13 @@
         <v>107</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>113</v>
+        <v>159</v>
+      </c>
+      <c r="F16" s="67" t="s">
+        <v>167</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>9</v>
@@ -4359,26 +4756,26 @@
         <v>9</v>
       </c>
       <c r="L16" s="26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>Forro</v>
       </c>
       <c r="M16" s="26" t="str">
-        <f t="shared" si="10"/>
-        <v>Acústico</v>
+        <f t="shared" si="0"/>
+        <v>Composição</v>
       </c>
       <c r="N16" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v>Adesivado</v>
+        <f t="shared" si="5"/>
+        <v>Argamassa</v>
       </c>
       <c r="O16" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v>Placa.3D</v>
-      </c>
-      <c r="P16" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q16" s="40" t="s">
-        <v>131</v>
+        <f t="shared" si="6"/>
+        <v>Rejunte</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q16" s="28" t="s">
+        <v>169</v>
       </c>
       <c r="R16" s="27" t="s">
         <v>9</v>
@@ -4389,11 +4786,11 @@
       </c>
       <c r="T16" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Acústico</v>
+        <v>Composição</v>
       </c>
       <c r="U16" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Adesivado</v>
+        <v>Argamassa</v>
       </c>
       <c r="V16" s="28" t="s">
         <v>212</v>
@@ -4414,13 +4811,13 @@
         <v>107</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>123</v>
+        <v>159</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>171</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>9</v>
@@ -4438,26 +4835,26 @@
         <v>9</v>
       </c>
       <c r="L17" s="26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>Forro</v>
       </c>
       <c r="M17" s="26" t="str">
-        <f t="shared" si="10"/>
-        <v>Acústico</v>
+        <f t="shared" si="0"/>
+        <v>Composição</v>
       </c>
       <c r="N17" s="26" t="str">
-        <f t="shared" si="11"/>
-        <v>Adesivado</v>
+        <f t="shared" si="5"/>
+        <v>Argamassa</v>
       </c>
       <c r="O17" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v>Placa.Shell</v>
-      </c>
-      <c r="P17" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q17" s="40" t="s">
-        <v>132</v>
+        <f t="shared" si="6"/>
+        <v>Baritada</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q17" s="28" t="s">
+        <v>176</v>
       </c>
       <c r="R17" s="27" t="s">
         <v>9</v>
@@ -4468,11 +4865,11 @@
       </c>
       <c r="T17" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Acústico</v>
+        <v>Composição</v>
       </c>
       <c r="U17" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Adesivado</v>
+        <v>Argamassa</v>
       </c>
       <c r="V17" s="28" t="s">
         <v>212</v>
@@ -4493,13 +4890,13 @@
         <v>107</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>9</v>
@@ -4517,41 +4914,41 @@
         <v>9</v>
       </c>
       <c r="L18" s="26" t="str">
-        <f t="shared" ref="L18" si="13">CONCATENATE("", C18)</f>
+        <f t="shared" ref="L18" si="7">CONCATENATE("", C18)</f>
         <v>Forro</v>
       </c>
       <c r="M18" s="26" t="str">
-        <f t="shared" ref="M18" si="14">CONCATENATE("", D18)</f>
-        <v>Acústico</v>
+        <f t="shared" ref="M18" si="8">CONCATENATE("", D18)</f>
+        <v>Aplicado</v>
       </c>
       <c r="N18" s="26" t="str">
-        <f t="shared" ref="N18" si="15">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E18),"."," ")," De "," de "))</f>
-        <v>Suspenso</v>
+        <f t="shared" ref="N18" si="9">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E18),"."," ")," De "," de "))</f>
+        <v>Moldado</v>
       </c>
       <c r="O18" s="21" t="str">
-        <f t="shared" ref="O18" si="16">F18</f>
-        <v>Baffle.Cilíndrico</v>
+        <f t="shared" ref="O18" si="10">F18</f>
+        <v>Gesso</v>
       </c>
       <c r="P18" s="41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="40" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="R18" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S18" s="28" t="str">
-        <f t="shared" ref="S18" si="17">SUBSTITUTE(C18, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Forro</v>
       </c>
       <c r="T18" s="28" t="str">
-        <f t="shared" ref="T18" si="18">SUBSTITUTE(D18, ".", " ")</f>
-        <v>Acústico</v>
+        <f t="shared" si="1"/>
+        <v>Aplicado</v>
       </c>
       <c r="U18" s="28" t="str">
-        <f t="shared" ref="U18" si="19">SUBSTITUTE(E18, ".", " ")</f>
-        <v>Suspenso</v>
+        <f t="shared" si="1"/>
+        <v>Moldado</v>
       </c>
       <c r="V18" s="28" t="s">
         <v>212</v>
@@ -4572,13 +4969,13 @@
         <v>107</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>9</v>
@@ -4596,41 +4993,41 @@
         <v>9</v>
       </c>
       <c r="L19" s="26" t="str">
-        <f t="shared" ref="L19:L21" si="20">CONCATENATE("", C19)</f>
+        <f t="shared" ref="L19:L23" si="11">CONCATENATE("", C19)</f>
         <v>Forro</v>
       </c>
       <c r="M19" s="26" t="str">
-        <f t="shared" ref="M19:M21" si="21">CONCATENATE("", D19)</f>
-        <v>Acústico</v>
+        <f t="shared" ref="M19:M23" si="12">CONCATENATE("", D19)</f>
+        <v>Aplicado</v>
       </c>
       <c r="N19" s="26" t="str">
-        <f t="shared" ref="N19:N21" si="22">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E19),"."," ")," De "," de "))</f>
-        <v>Suspenso</v>
+        <f t="shared" ref="N19:N23" si="13">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E19),"."," ")," De "," de "))</f>
+        <v>Moldado</v>
       </c>
       <c r="O19" s="21" t="str">
-        <f t="shared" ref="O19:O21" si="23">F19</f>
-        <v>Baffle.Linear</v>
+        <f t="shared" ref="O19:O23" si="14">F19</f>
+        <v>Gesso.Emplacado</v>
       </c>
       <c r="P19" s="41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="R19" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S19" s="28" t="str">
-        <f t="shared" ref="S19:U22" si="24">SUBSTITUTE(C19, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Forro</v>
       </c>
       <c r="T19" s="28" t="str">
-        <f t="shared" si="24"/>
-        <v>Acústico</v>
+        <f t="shared" si="1"/>
+        <v>Aplicado</v>
       </c>
       <c r="U19" s="28" t="str">
-        <f t="shared" si="24"/>
-        <v>Suspenso</v>
+        <f t="shared" si="1"/>
+        <v>Moldado</v>
       </c>
       <c r="V19" s="28" t="s">
         <v>212</v>
@@ -4651,13 +5048,13 @@
         <v>107</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>9</v>
@@ -4675,47 +5072,47 @@
         <v>9</v>
       </c>
       <c r="L20" s="26" t="str">
-        <f t="shared" ref="L20" si="25">CONCATENATE("", C20)</f>
+        <f t="shared" si="11"/>
         <v>Forro</v>
       </c>
       <c r="M20" s="26" t="str">
-        <f t="shared" ref="M20" si="26">CONCATENATE("", D20)</f>
-        <v>Acústico</v>
+        <f t="shared" si="12"/>
+        <v>Removível</v>
       </c>
       <c r="N20" s="26" t="str">
-        <f t="shared" ref="N20" si="27">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E20),"."," ")," De "," de "))</f>
-        <v>Suspenso</v>
+        <f t="shared" si="13"/>
+        <v>Modular</v>
       </c>
       <c r="O20" s="21" t="str">
-        <f t="shared" ref="O20" si="28">F20</f>
-        <v>Nuvem.Quadrada</v>
+        <f t="shared" si="14"/>
+        <v>Placa.EPS</v>
       </c>
       <c r="P20" s="41" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="R20" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S20" s="28" t="str">
-        <f t="shared" ref="S20" si="29">SUBSTITUTE(C20, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Forro</v>
       </c>
       <c r="T20" s="28" t="str">
-        <f t="shared" ref="T20" si="30">SUBSTITUTE(D20, ".", " ")</f>
-        <v>Acústico</v>
+        <f t="shared" si="1"/>
+        <v>Removível</v>
       </c>
       <c r="U20" s="28" t="str">
-        <f t="shared" ref="U20" si="31">SUBSTITUTE(E20, ".", " ")</f>
-        <v>Suspenso</v>
+        <f t="shared" si="1"/>
+        <v>Modular</v>
       </c>
       <c r="V20" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W20" s="1" t="str">
-        <f t="shared" ref="W20" si="32">CONCATENATE("Key-Teto-",A20)</f>
+        <f t="shared" si="4"/>
         <v>Key-Teto-20</v>
       </c>
     </row>
@@ -4733,10 +5130,10 @@
         <v>115</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>9</v>
@@ -4754,47 +5151,47 @@
         <v>9</v>
       </c>
       <c r="L21" s="26" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="L21" si="15">CONCATENATE("", C21)</f>
         <v>Forro</v>
       </c>
       <c r="M21" s="26" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="M21" si="16">CONCATENATE("", D21)</f>
         <v>Acústico</v>
       </c>
       <c r="N21" s="26" t="str">
-        <f t="shared" si="22"/>
-        <v>Suspenso</v>
+        <f t="shared" ref="N21" si="17">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E21),"."," ")," De "," de "))</f>
+        <v>Adesivado</v>
       </c>
       <c r="O21" s="21" t="str">
-        <f t="shared" si="23"/>
-        <v>Nuvem.Circular</v>
+        <f t="shared" ref="O21" si="18">F21</f>
+        <v>Placa.Espuma</v>
       </c>
       <c r="P21" s="41" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="Q21" s="40" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="R21" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S21" s="28" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="S21" si="19">SUBSTITUTE(C21, ".", " ")</f>
         <v>Forro</v>
       </c>
       <c r="T21" s="28" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="T21" si="20">SUBSTITUTE(D21, ".", " ")</f>
         <v>Acústico</v>
       </c>
       <c r="U21" s="28" t="str">
-        <f t="shared" si="24"/>
-        <v>Suspenso</v>
+        <f t="shared" ref="U21" si="21">SUBSTITUTE(E21, ".", " ")</f>
+        <v>Adesivado</v>
       </c>
       <c r="V21" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="W21" si="22">CONCATENATE("Key-Teto-",A21)</f>
         <v>Key-Teto-21</v>
       </c>
     </row>
@@ -4812,10 +5209,10 @@
         <v>115</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>9</v>
@@ -4833,41 +5230,41 @@
         <v>9</v>
       </c>
       <c r="L22" s="26" t="str">
-        <f t="shared" ref="L22" si="33">CONCATENATE("", C22)</f>
+        <f t="shared" si="11"/>
         <v>Forro</v>
       </c>
       <c r="M22" s="26" t="str">
-        <f t="shared" ref="M22" si="34">CONCATENATE("", D22)</f>
+        <f t="shared" si="12"/>
         <v>Acústico</v>
       </c>
       <c r="N22" s="26" t="str">
-        <f t="shared" ref="N22" si="35">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E22),"."," ")," De "," de "))</f>
-        <v>Suspenso</v>
+        <f t="shared" si="13"/>
+        <v>Adesivado</v>
       </c>
       <c r="O22" s="21" t="str">
-        <f t="shared" ref="O22" si="36">F22</f>
-        <v>Nuvem.Geométrica</v>
+        <f t="shared" si="14"/>
+        <v>Placa.3D</v>
       </c>
       <c r="P22" s="41" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="40" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="R22" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S22" s="28" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="1"/>
         <v>Forro</v>
       </c>
       <c r="T22" s="28" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="1"/>
         <v>Acústico</v>
       </c>
       <c r="U22" s="28" t="str">
-        <f t="shared" si="24"/>
-        <v>Suspenso</v>
+        <f t="shared" si="1"/>
+        <v>Adesivado</v>
       </c>
       <c r="V22" s="28" t="s">
         <v>212</v>
@@ -4875,123 +5272,639 @@
       <c r="W22" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Key-Teto-22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>Forro</v>
+      </c>
+      <c r="M23" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Acústico</v>
+      </c>
+      <c r="N23" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Adesivado</v>
+      </c>
+      <c r="O23" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>Placa.Shell</v>
+      </c>
+      <c r="P23" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q23" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="R23" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Forro</v>
+      </c>
+      <c r="T23" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Acústico</v>
+      </c>
+      <c r="U23" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Adesivado</v>
+      </c>
+      <c r="V23" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="W23" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Teto-23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="23">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="26" t="str">
+        <f t="shared" ref="L24" si="23">CONCATENATE("", C24)</f>
+        <v>Forro</v>
+      </c>
+      <c r="M24" s="26" t="str">
+        <f t="shared" ref="M24" si="24">CONCATENATE("", D24)</f>
+        <v>Acústico</v>
+      </c>
+      <c r="N24" s="26" t="str">
+        <f t="shared" ref="N24" si="25">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E24),"."," ")," De "," de "))</f>
+        <v>Suspenso</v>
+      </c>
+      <c r="O24" s="21" t="str">
+        <f t="shared" ref="O24" si="26">F24</f>
+        <v>Baffle.Cilíndrico</v>
+      </c>
+      <c r="P24" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q24" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="R24" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S24" s="28" t="str">
+        <f t="shared" ref="S24" si="27">SUBSTITUTE(C24, ".", " ")</f>
+        <v>Forro</v>
+      </c>
+      <c r="T24" s="28" t="str">
+        <f t="shared" ref="T24" si="28">SUBSTITUTE(D24, ".", " ")</f>
+        <v>Acústico</v>
+      </c>
+      <c r="U24" s="28" t="str">
+        <f t="shared" ref="U24" si="29">SUBSTITUTE(E24, ".", " ")</f>
+        <v>Suspenso</v>
+      </c>
+      <c r="V24" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="W24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Teto-24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="23">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="26" t="str">
+        <f t="shared" ref="L25:L27" si="30">CONCATENATE("", C25)</f>
+        <v>Forro</v>
+      </c>
+      <c r="M25" s="26" t="str">
+        <f t="shared" ref="M25:M27" si="31">CONCATENATE("", D25)</f>
+        <v>Acústico</v>
+      </c>
+      <c r="N25" s="26" t="str">
+        <f t="shared" ref="N25:N27" si="32">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E25),"."," ")," De "," de "))</f>
+        <v>Suspenso</v>
+      </c>
+      <c r="O25" s="21" t="str">
+        <f t="shared" ref="O25:O27" si="33">F25</f>
+        <v>Baffle.Linear</v>
+      </c>
+      <c r="P25" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q25" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="R25" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S25" s="28" t="str">
+        <f t="shared" ref="S25:U28" si="34">SUBSTITUTE(C25, ".", " ")</f>
+        <v>Forro</v>
+      </c>
+      <c r="T25" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>Acústico</v>
+      </c>
+      <c r="U25" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>Suspenso</v>
+      </c>
+      <c r="V25" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="W25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Teto-25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="23">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="26" t="str">
+        <f t="shared" ref="L26" si="35">CONCATENATE("", C26)</f>
+        <v>Forro</v>
+      </c>
+      <c r="M26" s="26" t="str">
+        <f t="shared" ref="M26" si="36">CONCATENATE("", D26)</f>
+        <v>Acústico</v>
+      </c>
+      <c r="N26" s="26" t="str">
+        <f t="shared" ref="N26" si="37">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E26),"."," ")," De "," de "))</f>
+        <v>Suspenso</v>
+      </c>
+      <c r="O26" s="21" t="str">
+        <f t="shared" ref="O26" si="38">F26</f>
+        <v>Nuvem.Quadrada</v>
+      </c>
+      <c r="P26" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q26" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="R26" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S26" s="28" t="str">
+        <f t="shared" ref="S26" si="39">SUBSTITUTE(C26, ".", " ")</f>
+        <v>Forro</v>
+      </c>
+      <c r="T26" s="28" t="str">
+        <f t="shared" ref="T26" si="40">SUBSTITUTE(D26, ".", " ")</f>
+        <v>Acústico</v>
+      </c>
+      <c r="U26" s="28" t="str">
+        <f t="shared" ref="U26" si="41">SUBSTITUTE(E26, ".", " ")</f>
+        <v>Suspenso</v>
+      </c>
+      <c r="V26" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="W26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Teto-26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="23">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Forro</v>
+      </c>
+      <c r="M27" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>Acústico</v>
+      </c>
+      <c r="N27" s="26" t="str">
+        <f t="shared" si="32"/>
+        <v>Suspenso</v>
+      </c>
+      <c r="O27" s="21" t="str">
+        <f t="shared" si="33"/>
+        <v>Nuvem.Circular</v>
+      </c>
+      <c r="P27" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q27" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="R27" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S27" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>Forro</v>
+      </c>
+      <c r="T27" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>Acústico</v>
+      </c>
+      <c r="U27" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>Suspenso</v>
+      </c>
+      <c r="V27" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="W27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Teto-27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="23">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="26" t="str">
+        <f t="shared" ref="L28" si="42">CONCATENATE("", C28)</f>
+        <v>Forro</v>
+      </c>
+      <c r="M28" s="26" t="str">
+        <f t="shared" ref="M28" si="43">CONCATENATE("", D28)</f>
+        <v>Acústico</v>
+      </c>
+      <c r="N28" s="26" t="str">
+        <f t="shared" ref="N28" si="44">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E28),"."," ")," De "," de "))</f>
+        <v>Suspenso</v>
+      </c>
+      <c r="O28" s="21" t="str">
+        <f t="shared" ref="O28" si="45">F28</f>
+        <v>Nuvem.Geométrica</v>
+      </c>
+      <c r="P28" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q28" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="R28" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S28" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>Forro</v>
+      </c>
+      <c r="T28" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>Acústico</v>
+      </c>
+      <c r="U28" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>Suspenso</v>
+      </c>
+      <c r="V28" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="W28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Teto-28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="124" priority="1441"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="1475"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="123" priority="23"/>
+  <conditionalFormatting sqref="F1:F2 F8:F1048576">
+    <cfRule type="duplicateValues" dxfId="157" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="122" priority="1401"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="1402"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="1403"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="1404"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="1405"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="1406"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="1435"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="1436"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="1437"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="1438"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="1439"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="1440"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F8">
-    <cfRule type="duplicateValues" dxfId="116" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="63"/>
+  <conditionalFormatting sqref="F8:F13">
+    <cfRule type="duplicateValues" dxfId="150" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
-    <cfRule type="duplicateValues" dxfId="105" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="41"/>
+  <conditionalFormatting sqref="F14:F17">
+    <cfRule type="duplicateValues" dxfId="139" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="98" priority="1442"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="1443"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="1444"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="1445"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="1446"/>
+  <conditionalFormatting sqref="F18:F28">
+    <cfRule type="duplicateValues" dxfId="132" priority="2354"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="2355"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="2356"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="2357"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="2358"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="2359"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="2360"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="2361"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="2362"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="2363"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="2364"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F1048576">
-    <cfRule type="duplicateValues" dxfId="93" priority="657"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="659"/>
+  <conditionalFormatting sqref="F29:F1048576 F1">
+    <cfRule type="duplicateValues" dxfId="121" priority="1476"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="1477"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="1478"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="1479"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="1480"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P8">
-    <cfRule type="duplicateValues" dxfId="91" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="52"/>
+  <conditionalFormatting sqref="F29:F1048576">
+    <cfRule type="duplicateValues" dxfId="116" priority="691"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="693"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P13:P14">
-    <cfRule type="duplicateValues" dxfId="80" priority="302"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="303"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="304"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="305"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="306"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="307"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="308"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="309"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="310"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="311"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="312"/>
+  <conditionalFormatting sqref="P8:P13">
+    <cfRule type="duplicateValues" dxfId="114" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P15">
-    <cfRule type="duplicateValues" dxfId="69" priority="203"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="204"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="205"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="206"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="207"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="208"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="209"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="210"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="211"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="212"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="213"/>
+  <conditionalFormatting sqref="P18:P19">
+    <cfRule type="duplicateValues" dxfId="103" priority="336"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="337"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="338"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="340"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="342"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="345"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="346"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P16:P17">
-    <cfRule type="duplicateValues" dxfId="58" priority="236"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="237"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="238"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="239"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="240"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="242"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="243"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="244"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="245"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="246"/>
+  <conditionalFormatting sqref="P20">
+    <cfRule type="duplicateValues" dxfId="92" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="247"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P19:P22">
-    <cfRule type="duplicateValues" dxfId="47" priority="2263"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="2264"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="2265"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="2266"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="2267"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="2268"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="2269"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="2270"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="2271"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="2272"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="2273"/>
+  <conditionalFormatting sqref="P21:P23">
+    <cfRule type="duplicateValues" dxfId="81" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="280"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q7">
+  <conditionalFormatting sqref="P24">
+    <cfRule type="duplicateValues" dxfId="70" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25:P28">
+    <cfRule type="duplicateValues" dxfId="59" priority="2297"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="2298"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="2299"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="2300"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="2301"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="2302"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="2303"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="2304"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="2305"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="2306"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="2307"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12">
+    <cfRule type="duplicateValues" dxfId="48" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F7">
+    <cfRule type="duplicateValues" dxfId="37" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F7">
     <cfRule type="duplicateValues" dxfId="36" priority="24"/>
     <cfRule type="duplicateValues" dxfId="35" priority="25"/>
     <cfRule type="duplicateValues" dxfId="34" priority="26"/>
@@ -5004,31 +5917,31 @@
     <cfRule type="duplicateValues" dxfId="27" priority="33"/>
     <cfRule type="duplicateValues" dxfId="26" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P18">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
+  <conditionalFormatting sqref="P3:P7">
+    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F22">
-    <cfRule type="duplicateValues" dxfId="10" priority="2320"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="2321"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2322"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="2323"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="2324"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="2325"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2326"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="2327"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2328"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2329"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2330"/>
+  <conditionalFormatting sqref="Q3:Q7">
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5247,7 +6160,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7993,15 +8906,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1 B3:G1048576 C2:G2">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 A1:B1">
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/TETO/Ontologia_TETOS.xlsx
+++ b/Versão5/TETO/Ontologia_TETOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\TETO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03530B9E-B603-4294-9C12-D524B27DBC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADD7D86-11B2-4BA2-B713-DF520F13E79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="471" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="13" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="243">
   <si>
     <t>EquivalentTo: 
 Raiz
@@ -769,6 +769,39 @@
   </si>
   <si>
     <t>Placa de espuma acústica para adhesivar no teto.</t>
+  </si>
+  <si>
+    <t>Placa.Mineral</t>
+  </si>
+  <si>
+    <t>Forro suspenso de placas de fibras minerais.</t>
+  </si>
+  <si>
+    <t>Falso techo de placas de fibras minerales.</t>
+  </si>
+  <si>
+    <t>"Placa de forro modular retangular 1250 x 625 x 25mm de fibra mineral com textura fina desempenho total acoustics Armstrong."</t>
+  </si>
+  <si>
+    <t>"Armstrong"</t>
+  </si>
+  <si>
+    <t>"Escrotório"</t>
+  </si>
+  <si>
+    <t>FOR.01</t>
+  </si>
+  <si>
+    <t>é.montado.com</t>
+  </si>
+  <si>
+    <t>"Escritório"</t>
+  </si>
+  <si>
+    <t>"Forro do escritório de placas modulares."</t>
+  </si>
+  <si>
+    <t>PLA.125x62</t>
   </si>
 </sst>
 </file>
@@ -858,7 +891,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -983,12 +1016,6 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1246,17 +1273,11 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1282,11 +1303,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="159">
+  <dxfs count="161">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3463,7 +3504,7 @@
       </c>
       <c r="B18" s="39">
         <f ca="1">NOW()</f>
-        <v>45915.611449999997</v>
+        <v>45915.628347685182</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.5500000000000007" customHeight="1" x14ac:dyDescent="0.4">
@@ -3513,12 +3554,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96052D63-9637-42D9-866B-0BB924A50D8C}">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A179" sqref="A179:XFD190"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A28"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3536,7 +3577,7 @@
     <col min="15" max="15" width="7.921875" customWidth="1"/>
     <col min="16" max="16" width="42.4609375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="50.84375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3" style="68" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3" style="66" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.3828125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.84375" customWidth="1"/>
     <col min="21" max="21" width="5.61328125" customWidth="1"/>
@@ -3675,7 +3716,7 @@
         <v>9</v>
       </c>
       <c r="S2" s="28" t="str">
-        <f t="shared" ref="S2:U23" si="1">SUBSTITUTE(C2, ".", " ")</f>
+        <f t="shared" ref="S2:U24" si="1">SUBSTITUTE(C2, ".", " ")</f>
         <v>Gestão</v>
       </c>
       <c r="T2" s="28" t="str">
@@ -3769,7 +3810,7 @@
         <v>212</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W28" si="4">CONCATENATE("Key-Teto-",A3)</f>
+        <f t="shared" ref="W3:W29" si="4">CONCATENATE("Key-Teto-",A3)</f>
         <v>Key-Teto-3</v>
       </c>
     </row>
@@ -4579,7 +4620,7 @@
       <c r="E14" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="65" t="s">
         <v>161</v>
       </c>
       <c r="G14" s="30" t="s">
@@ -4658,7 +4699,7 @@
       <c r="E15" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="65" t="s">
         <v>164</v>
       </c>
       <c r="G15" s="30" t="s">
@@ -4737,7 +4778,7 @@
       <c r="E16" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="65" t="s">
         <v>167</v>
       </c>
       <c r="G16" s="30" t="s">
@@ -4816,7 +4857,7 @@
       <c r="E17" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="F17" s="65" t="s">
         <v>171</v>
       </c>
       <c r="G17" s="30" t="s">
@@ -4993,19 +5034,19 @@
         <v>9</v>
       </c>
       <c r="L19" s="26" t="str">
-        <f t="shared" ref="L19:L23" si="11">CONCATENATE("", C19)</f>
+        <f t="shared" ref="L19:L24" si="11">CONCATENATE("", C19)</f>
         <v>Forro</v>
       </c>
       <c r="M19" s="26" t="str">
-        <f t="shared" ref="M19:M23" si="12">CONCATENATE("", D19)</f>
+        <f t="shared" ref="M19:M24" si="12">CONCATENATE("", D19)</f>
         <v>Aplicado</v>
       </c>
       <c r="N19" s="26" t="str">
-        <f t="shared" ref="N19:N23" si="13">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E19),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N19:N24" si="13">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E19),"."," ")," De "," de "))</f>
         <v>Moldado</v>
       </c>
       <c r="O19" s="21" t="str">
-        <f t="shared" ref="O19:O23" si="14">F19</f>
+        <f t="shared" ref="O19:O24" si="14">F19</f>
         <v>Gesso.Emplacado</v>
       </c>
       <c r="P19" s="41" t="s">
@@ -5072,19 +5113,19 @@
         <v>9</v>
       </c>
       <c r="L20" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="L20" si="15">CONCATENATE("", C20)</f>
         <v>Forro</v>
       </c>
       <c r="M20" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="M20" si="16">CONCATENATE("", D20)</f>
         <v>Removível</v>
       </c>
       <c r="N20" s="26" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="N20" si="17">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E20),"."," ")," De "," de "))</f>
         <v>Modular</v>
       </c>
       <c r="O20" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="O20" si="18">F20</f>
         <v>Placa.EPS</v>
       </c>
       <c r="P20" s="41" t="s">
@@ -5097,22 +5138,22 @@
         <v>9</v>
       </c>
       <c r="S20" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S20" si="19">SUBSTITUTE(C20, ".", " ")</f>
         <v>Forro</v>
       </c>
       <c r="T20" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="T20" si="20">SUBSTITUTE(D20, ".", " ")</f>
         <v>Removível</v>
       </c>
       <c r="U20" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U20" si="21">SUBSTITUTE(E20, ".", " ")</f>
         <v>Modular</v>
       </c>
       <c r="V20" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="W20" si="22">CONCATENATE("Key-Teto-",A20)</f>
         <v>Key-Teto-20</v>
       </c>
     </row>
@@ -5127,13 +5168,13 @@
         <v>107</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>9</v>
@@ -5151,47 +5192,47 @@
         <v>9</v>
       </c>
       <c r="L21" s="26" t="str">
-        <f t="shared" ref="L21" si="15">CONCATENATE("", C21)</f>
+        <f t="shared" si="11"/>
         <v>Forro</v>
       </c>
       <c r="M21" s="26" t="str">
-        <f t="shared" ref="M21" si="16">CONCATENATE("", D21)</f>
-        <v>Acústico</v>
+        <f t="shared" si="12"/>
+        <v>Removível</v>
       </c>
       <c r="N21" s="26" t="str">
-        <f t="shared" ref="N21" si="17">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E21),"."," ")," De "," de "))</f>
-        <v>Adesivado</v>
+        <f t="shared" si="13"/>
+        <v>Modular</v>
       </c>
       <c r="O21" s="21" t="str">
-        <f t="shared" ref="O21" si="18">F21</f>
-        <v>Placa.Espuma</v>
+        <f t="shared" si="14"/>
+        <v>Placa.Mineral</v>
       </c>
       <c r="P21" s="41" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q21" s="40" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="R21" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S21" s="28" t="str">
-        <f t="shared" ref="S21" si="19">SUBSTITUTE(C21, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Forro</v>
       </c>
       <c r="T21" s="28" t="str">
-        <f t="shared" ref="T21" si="20">SUBSTITUTE(D21, ".", " ")</f>
-        <v>Acústico</v>
+        <f t="shared" si="1"/>
+        <v>Removível</v>
       </c>
       <c r="U21" s="28" t="str">
-        <f t="shared" ref="U21" si="21">SUBSTITUTE(E21, ".", " ")</f>
-        <v>Adesivado</v>
+        <f t="shared" si="1"/>
+        <v>Modular</v>
       </c>
       <c r="V21" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W21" s="1" t="str">
-        <f t="shared" ref="W21" si="22">CONCATENATE("Key-Teto-",A21)</f>
+        <f t="shared" si="4"/>
         <v>Key-Teto-21</v>
       </c>
     </row>
@@ -5212,7 +5253,7 @@
         <v>122</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>9</v>
@@ -5230,47 +5271,47 @@
         <v>9</v>
       </c>
       <c r="L22" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="L22" si="23">CONCATENATE("", C22)</f>
         <v>Forro</v>
       </c>
       <c r="M22" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="M22" si="24">CONCATENATE("", D22)</f>
         <v>Acústico</v>
       </c>
       <c r="N22" s="26" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="N22" si="25">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E22),"."," ")," De "," de "))</f>
         <v>Adesivado</v>
       </c>
       <c r="O22" s="21" t="str">
-        <f t="shared" si="14"/>
-        <v>Placa.3D</v>
+        <f t="shared" ref="O22" si="26">F22</f>
+        <v>Placa.Espuma</v>
       </c>
       <c r="P22" s="41" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="Q22" s="40" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="R22" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S22" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S22" si="27">SUBSTITUTE(C22, ".", " ")</f>
         <v>Forro</v>
       </c>
       <c r="T22" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="T22" si="28">SUBSTITUTE(D22, ".", " ")</f>
         <v>Acústico</v>
       </c>
       <c r="U22" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U22" si="29">SUBSTITUTE(E22, ".", " ")</f>
         <v>Adesivado</v>
       </c>
       <c r="V22" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="W22" si="30">CONCATENATE("Key-Teto-",A22)</f>
         <v>Key-Teto-22</v>
       </c>
     </row>
@@ -5291,7 +5332,7 @@
         <v>122</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>9</v>
@@ -5322,13 +5363,13 @@
       </c>
       <c r="O23" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>Placa.Shell</v>
+        <v>Placa.3D</v>
       </c>
       <c r="P23" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R23" s="27" t="s">
         <v>9</v>
@@ -5367,10 +5408,10 @@
         <v>115</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G24" s="30" t="s">
         <v>9</v>
@@ -5388,41 +5429,41 @@
         <v>9</v>
       </c>
       <c r="L24" s="26" t="str">
-        <f t="shared" ref="L24" si="23">CONCATENATE("", C24)</f>
+        <f t="shared" si="11"/>
         <v>Forro</v>
       </c>
       <c r="M24" s="26" t="str">
-        <f t="shared" ref="M24" si="24">CONCATENATE("", D24)</f>
+        <f t="shared" si="12"/>
         <v>Acústico</v>
       </c>
       <c r="N24" s="26" t="str">
-        <f t="shared" ref="N24" si="25">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E24),"."," ")," De "," de "))</f>
-        <v>Suspenso</v>
+        <f t="shared" si="13"/>
+        <v>Adesivado</v>
       </c>
       <c r="O24" s="21" t="str">
-        <f t="shared" ref="O24" si="26">F24</f>
-        <v>Baffle.Cilíndrico</v>
+        <f t="shared" si="14"/>
+        <v>Placa.Shell</v>
       </c>
       <c r="P24" s="41" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="Q24" s="40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R24" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S24" s="28" t="str">
-        <f t="shared" ref="S24" si="27">SUBSTITUTE(C24, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Forro</v>
       </c>
       <c r="T24" s="28" t="str">
-        <f t="shared" ref="T24" si="28">SUBSTITUTE(D24, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Acústico</v>
       </c>
       <c r="U24" s="28" t="str">
-        <f t="shared" ref="U24" si="29">SUBSTITUTE(E24, ".", " ")</f>
-        <v>Suspenso</v>
+        <f t="shared" si="1"/>
+        <v>Adesivado</v>
       </c>
       <c r="V24" s="28" t="s">
         <v>212</v>
@@ -5449,7 +5490,7 @@
         <v>125</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>9</v>
@@ -5467,40 +5508,40 @@
         <v>9</v>
       </c>
       <c r="L25" s="26" t="str">
-        <f t="shared" ref="L25:L27" si="30">CONCATENATE("", C25)</f>
+        <f t="shared" ref="L25" si="31">CONCATENATE("", C25)</f>
         <v>Forro</v>
       </c>
       <c r="M25" s="26" t="str">
-        <f t="shared" ref="M25:M27" si="31">CONCATENATE("", D25)</f>
+        <f t="shared" ref="M25" si="32">CONCATENATE("", D25)</f>
         <v>Acústico</v>
       </c>
       <c r="N25" s="26" t="str">
-        <f t="shared" ref="N25:N27" si="32">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E25),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N25" si="33">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E25),"."," ")," De "," de "))</f>
         <v>Suspenso</v>
       </c>
       <c r="O25" s="21" t="str">
-        <f t="shared" ref="O25:O27" si="33">F25</f>
-        <v>Baffle.Linear</v>
+        <f t="shared" ref="O25" si="34">F25</f>
+        <v>Baffle.Cilíndrico</v>
       </c>
       <c r="P25" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R25" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S25" s="28" t="str">
-        <f t="shared" ref="S25:U28" si="34">SUBSTITUTE(C25, ".", " ")</f>
+        <f t="shared" ref="S25" si="35">SUBSTITUTE(C25, ".", " ")</f>
         <v>Forro</v>
       </c>
       <c r="T25" s="28" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="T25" si="36">SUBSTITUTE(D25, ".", " ")</f>
         <v>Acústico</v>
       </c>
       <c r="U25" s="28" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="U25" si="37">SUBSTITUTE(E25, ".", " ")</f>
         <v>Suspenso</v>
       </c>
       <c r="V25" s="28" t="s">
@@ -5528,7 +5569,7 @@
         <v>125</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>9</v>
@@ -5546,40 +5587,40 @@
         <v>9</v>
       </c>
       <c r="L26" s="26" t="str">
-        <f t="shared" ref="L26" si="35">CONCATENATE("", C26)</f>
+        <f t="shared" ref="L26:L28" si="38">CONCATENATE("", C26)</f>
         <v>Forro</v>
       </c>
       <c r="M26" s="26" t="str">
-        <f t="shared" ref="M26" si="36">CONCATENATE("", D26)</f>
+        <f t="shared" ref="M26:M28" si="39">CONCATENATE("", D26)</f>
         <v>Acústico</v>
       </c>
       <c r="N26" s="26" t="str">
-        <f t="shared" ref="N26" si="37">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E26),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N26:N28" si="40">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E26),"."," ")," De "," de "))</f>
         <v>Suspenso</v>
       </c>
       <c r="O26" s="21" t="str">
-        <f t="shared" ref="O26" si="38">F26</f>
-        <v>Nuvem.Quadrada</v>
+        <f t="shared" ref="O26:O28" si="41">F26</f>
+        <v>Baffle.Linear</v>
       </c>
       <c r="P26" s="41" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R26" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S26" s="28" t="str">
-        <f t="shared" ref="S26" si="39">SUBSTITUTE(C26, ".", " ")</f>
+        <f t="shared" ref="S26:U29" si="42">SUBSTITUTE(C26, ".", " ")</f>
         <v>Forro</v>
       </c>
       <c r="T26" s="28" t="str">
-        <f t="shared" ref="T26" si="40">SUBSTITUTE(D26, ".", " ")</f>
+        <f t="shared" si="42"/>
         <v>Acústico</v>
       </c>
       <c r="U26" s="28" t="str">
-        <f t="shared" ref="U26" si="41">SUBSTITUTE(E26, ".", " ")</f>
+        <f t="shared" si="42"/>
         <v>Suspenso</v>
       </c>
       <c r="V26" s="28" t="s">
@@ -5607,7 +5648,7 @@
         <v>125</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G27" s="30" t="s">
         <v>9</v>
@@ -5625,23 +5666,23 @@
         <v>9</v>
       </c>
       <c r="L27" s="26" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="L27" si="43">CONCATENATE("", C27)</f>
         <v>Forro</v>
       </c>
       <c r="M27" s="26" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="M27" si="44">CONCATENATE("", D27)</f>
         <v>Acústico</v>
       </c>
       <c r="N27" s="26" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="N27" si="45">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E27),"."," ")," De "," de "))</f>
         <v>Suspenso</v>
       </c>
       <c r="O27" s="21" t="str">
-        <f t="shared" si="33"/>
-        <v>Nuvem.Circular</v>
+        <f t="shared" ref="O27" si="46">F27</f>
+        <v>Nuvem.Quadrada</v>
       </c>
       <c r="P27" s="41" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="Q27" s="40" t="s">
         <v>134</v>
@@ -5650,15 +5691,15 @@
         <v>9</v>
       </c>
       <c r="S27" s="28" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="S27" si="47">SUBSTITUTE(C27, ".", " ")</f>
         <v>Forro</v>
       </c>
       <c r="T27" s="28" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="T27" si="48">SUBSTITUTE(D27, ".", " ")</f>
         <v>Acústico</v>
       </c>
       <c r="U27" s="28" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="U27" si="49">SUBSTITUTE(E27, ".", " ")</f>
         <v>Suspenso</v>
       </c>
       <c r="V27" s="28" t="s">
@@ -5686,7 +5727,7 @@
         <v>125</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>9</v>
@@ -5704,40 +5745,40 @@
         <v>9</v>
       </c>
       <c r="L28" s="26" t="str">
-        <f t="shared" ref="L28" si="42">CONCATENATE("", C28)</f>
+        <f t="shared" si="38"/>
         <v>Forro</v>
       </c>
       <c r="M28" s="26" t="str">
-        <f t="shared" ref="M28" si="43">CONCATENATE("", D28)</f>
+        <f t="shared" si="39"/>
         <v>Acústico</v>
       </c>
       <c r="N28" s="26" t="str">
-        <f t="shared" ref="N28" si="44">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E28),"."," ")," De "," de "))</f>
+        <f t="shared" si="40"/>
         <v>Suspenso</v>
       </c>
       <c r="O28" s="21" t="str">
-        <f t="shared" ref="O28" si="45">F28</f>
-        <v>Nuvem.Geométrica</v>
+        <f t="shared" si="41"/>
+        <v>Nuvem.Circular</v>
       </c>
       <c r="P28" s="41" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="Q28" s="40" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="R28" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S28" s="28" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>Forro</v>
       </c>
       <c r="T28" s="28" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>Acústico</v>
       </c>
       <c r="U28" s="28" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>Suspenso</v>
       </c>
       <c r="V28" s="28" t="s">
@@ -5746,202 +5787,279 @@
       <c r="W28" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Key-Teto-28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="23">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="26" t="str">
+        <f t="shared" ref="L29" si="50">CONCATENATE("", C29)</f>
+        <v>Forro</v>
+      </c>
+      <c r="M29" s="26" t="str">
+        <f t="shared" ref="M29" si="51">CONCATENATE("", D29)</f>
+        <v>Acústico</v>
+      </c>
+      <c r="N29" s="26" t="str">
+        <f t="shared" ref="N29" si="52">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E29),"."," ")," De "," de "))</f>
+        <v>Suspenso</v>
+      </c>
+      <c r="O29" s="21" t="str">
+        <f t="shared" ref="O29" si="53">F29</f>
+        <v>Nuvem.Geométrica</v>
+      </c>
+      <c r="P29" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q29" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="R29" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S29" s="28" t="str">
+        <f t="shared" si="42"/>
+        <v>Forro</v>
+      </c>
+      <c r="T29" s="28" t="str">
+        <f t="shared" si="42"/>
+        <v>Acústico</v>
+      </c>
+      <c r="U29" s="28" t="str">
+        <f t="shared" si="42"/>
+        <v>Suspenso</v>
+      </c>
+      <c r="V29" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="W29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Teto-29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="158" priority="1475"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="1475"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2 F8:F1048576">
-    <cfRule type="duplicateValues" dxfId="157" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="156" priority="1435"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="1436"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="1437"/>
-    <cfRule type="duplicateValues" dxfId="153" priority="1438"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="1439"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="1440"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="1435"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="1436"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="1437"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="1438"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="1439"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="1440"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F7">
+    <cfRule type="duplicateValues" dxfId="152" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F13">
-    <cfRule type="duplicateValues" dxfId="150" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F17">
-    <cfRule type="duplicateValues" dxfId="139" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F28">
-    <cfRule type="duplicateValues" dxfId="132" priority="2354"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="2355"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="2356"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="2357"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="2358"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="2359"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="2360"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="2361"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="2362"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="2363"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="2364"/>
+  <conditionalFormatting sqref="F18:F29">
+    <cfRule type="duplicateValues" dxfId="122" priority="2354"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="2355"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="2356"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="2357"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="2358"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="2359"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="2360"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="2361"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="2362"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="2363"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="2364"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="121" priority="1476"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="1477"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="1478"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="1479"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="1480"/>
+  <conditionalFormatting sqref="F30:F1048576 F1">
+    <cfRule type="duplicateValues" dxfId="111" priority="1476"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="1477"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="1478"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="1479"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="1480"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F1048576">
-    <cfRule type="duplicateValues" dxfId="116" priority="691"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="693"/>
+  <conditionalFormatting sqref="F30:F1048576">
+    <cfRule type="duplicateValues" dxfId="106" priority="691"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="693"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P7">
+    <cfRule type="duplicateValues" dxfId="104" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P13">
-    <cfRule type="duplicateValues" dxfId="114" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:P19">
-    <cfRule type="duplicateValues" dxfId="103" priority="336"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="337"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="338"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="339"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="340"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="341"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="342"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="343"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="344"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="345"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="346"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="336"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="337"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="338"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="340"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="342"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="345"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="346"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P20">
-    <cfRule type="duplicateValues" dxfId="92" priority="237"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="238"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="239"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="240"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="242"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="243"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="244"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="245"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="246"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="247"/>
+  <conditionalFormatting sqref="P20:P21">
+    <cfRule type="duplicateValues" dxfId="71" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="247"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P21:P23">
-    <cfRule type="duplicateValues" dxfId="81" priority="270"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="271"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="272"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="273"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="274"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="275"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="276"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="277"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="278"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="279"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="280"/>
+  <conditionalFormatting sqref="P22:P24">
+    <cfRule type="duplicateValues" dxfId="60" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="280"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P24">
-    <cfRule type="duplicateValues" dxfId="70" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="45"/>
+  <conditionalFormatting sqref="P25">
+    <cfRule type="duplicateValues" dxfId="49" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P25:P28">
-    <cfRule type="duplicateValues" dxfId="59" priority="2297"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="2298"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="2299"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="2300"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="2301"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="2302"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="2303"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="2304"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="2305"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="2306"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="2307"/>
+  <conditionalFormatting sqref="P26:P29">
+    <cfRule type="duplicateValues" dxfId="38" priority="2297"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="2298"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2299"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="2300"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="2301"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="2302"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2303"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2304"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="2305"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="2306"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2307"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q7">
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="duplicateValues" dxfId="48" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F7">
-    <cfRule type="duplicateValues" dxfId="37" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F7">
-    <cfRule type="duplicateValues" dxfId="36" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P7">
-    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q7">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="68"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6160,7 +6278,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6174,196 +6292,196 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A426B82-2E19-47C6-9DDF-914E7B26E6D0}">
-  <dimension ref="A1:AS19"/>
+  <dimension ref="A1:AS21"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="7.3" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.765625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.765625" style="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="55" customWidth="1"/>
     <col min="3" max="3" width="7" style="55" customWidth="1"/>
     <col min="4" max="4" width="4.07421875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.3046875" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.3046875" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.84375" style="61" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.07421875" style="61" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.84375" style="61" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.4609375" style="61" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.84375" style="61" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.3828125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.84375" style="61" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.3828125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.69140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.07421875" style="61" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.3046875" style="61" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.4609375" style="61" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.3828125" style="61" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.4609375" style="61" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.3828125" style="61" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.4609375" style="61" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.3828125" style="61" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.84375" style="61" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.3828125" style="61" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.84375" style="61" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.3828125" style="61" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.84375" style="61" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="2.3828125" style="61" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="1.921875" style="61" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="2.3828125" style="61" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="1.921875" style="61" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="2.3828125" style="61" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="1.921875" style="61" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="2.3828125" style="61" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="1.921875" style="61" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="2.3828125" style="61" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="1.921875" style="61" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="2.3828125" style="61" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="1.921875" style="61" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="2.3828125" style="61" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="1.921875" style="61" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="2.3828125" style="61" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="1.921875" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.3046875" style="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.3046875" style="59" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.84375" style="59" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.07421875" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.84375" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.4609375" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.84375" style="59" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.3828125" style="59" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.84375" style="59" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.3828125" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.765625" style="59" customWidth="1"/>
+    <col min="17" max="17" width="7.61328125" style="59" customWidth="1"/>
+    <col min="18" max="18" width="9.84375" style="59" customWidth="1"/>
+    <col min="19" max="19" width="2.3828125" style="59" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.84375" style="59" customWidth="1"/>
+    <col min="21" max="21" width="2.3828125" style="59" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.84375" style="59" customWidth="1"/>
+    <col min="23" max="23" width="2.3828125" style="59" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.84375" style="59" customWidth="1"/>
+    <col min="25" max="25" width="2.3828125" style="59" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.84375" style="59" customWidth="1"/>
+    <col min="27" max="27" width="2.3828125" style="59" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.84375" style="59" customWidth="1"/>
+    <col min="29" max="29" width="2.3828125" style="59" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.84375" style="59" customWidth="1"/>
+    <col min="31" max="32" width="2.3828125" style="59" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="1.921875" style="59" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.3828125" style="59" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="1.921875" style="59" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2.3828125" style="59" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="1.921875" style="59" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2.3828125" style="59" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="1.921875" style="59" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2.3828125" style="59" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="1.921875" style="59" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="2.3828125" style="59" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="1.921875" style="59" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="2.3828125" style="59" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="1.921875" style="59" bestFit="1" customWidth="1"/>
     <col min="46" max="16384" width="9.23046875" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="66" customFormat="1" ht="24.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:45" s="64" customFormat="1" ht="24.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="63" t="s">
+      <c r="R1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="S1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="V1" s="63" t="s">
+      <c r="V1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="63" t="s">
+      <c r="W1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="63" t="s">
+      <c r="X1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="63" t="s">
+      <c r="Y1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="65" t="s">
+      <c r="Z1" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" s="63" t="s">
+      <c r="AA1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="63" t="s">
+      <c r="AB1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="AC1" s="63" t="s">
+      <c r="AC1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="AD1" s="63" t="s">
+      <c r="AD1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="AE1" s="63" t="s">
+      <c r="AE1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="63" t="s">
+      <c r="AF1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="AG1" s="63" t="s">
+      <c r="AG1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="AH1" s="63" t="s">
+      <c r="AH1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="AI1" s="63" t="s">
+      <c r="AI1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="AJ1" s="63" t="s">
+      <c r="AJ1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="AK1" s="63" t="s">
+      <c r="AK1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="AL1" s="63" t="s">
+      <c r="AL1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="AM1" s="63" t="s">
+      <c r="AM1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="AN1" s="63" t="s">
+      <c r="AN1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="AO1" s="63" t="s">
+      <c r="AO1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="AP1" s="63" t="s">
+      <c r="AP1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="AQ1" s="63" t="s">
+      <c r="AQ1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="AR1" s="63" t="s">
+      <c r="AR1" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="AS1" s="63" t="s">
+      <c r="AS1" s="61" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7470,7 +7588,7 @@
       <c r="B10" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="58" t="s">
         <v>114</v>
       </c>
       <c r="D10" s="45" t="s">
@@ -7497,16 +7615,16 @@
       <c r="K10" s="56">
         <v>125</v>
       </c>
-      <c r="L10" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="60" t="s">
+      <c r="L10" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="47" t="s">
         <v>9</v>
       </c>
       <c r="N10" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="O10" s="58" t="s">
+      <c r="O10" s="57" t="s">
         <v>139</v>
       </c>
       <c r="P10" s="45" t="s">
@@ -7607,7 +7725,7 @@
       <c r="B11" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="58" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="45" t="s">
@@ -7634,16 +7752,16 @@
       <c r="K11" s="56">
         <v>125</v>
       </c>
-      <c r="L11" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="60" t="s">
+      <c r="L11" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="47" t="s">
         <v>9</v>
       </c>
       <c r="N11" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="O11" s="58" t="s">
+      <c r="O11" s="57" t="s">
         <v>139</v>
       </c>
       <c r="P11" s="45" t="s">
@@ -7744,7 +7862,7 @@
       <c r="B12" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="58" t="s">
         <v>114</v>
       </c>
       <c r="D12" s="45" t="s">
@@ -7771,16 +7889,16 @@
       <c r="K12" s="56">
         <v>125</v>
       </c>
-      <c r="L12" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="60" t="s">
+      <c r="L12" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="47" t="s">
         <v>9</v>
       </c>
       <c r="N12" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="O12" s="58" t="s">
+      <c r="O12" s="57" t="s">
         <v>139</v>
       </c>
       <c r="P12" s="45" t="s">
@@ -7881,7 +7999,7 @@
       <c r="B13" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="58" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="45" t="s">
@@ -7908,16 +8026,16 @@
       <c r="K13" s="56">
         <v>80</v>
       </c>
-      <c r="L13" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="60" t="s">
+      <c r="L13" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="47" t="s">
         <v>9</v>
       </c>
       <c r="N13" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="O13" s="58" t="s">
+      <c r="O13" s="57" t="s">
         <v>139</v>
       </c>
       <c r="P13" s="45" t="s">
@@ -8018,7 +8136,7 @@
       <c r="B14" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="58" t="s">
         <v>114</v>
       </c>
       <c r="D14" s="45" t="s">
@@ -8045,16 +8163,16 @@
       <c r="K14" s="56">
         <v>120</v>
       </c>
-      <c r="L14" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" s="60" t="s">
+      <c r="L14" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="47" t="s">
         <v>9</v>
       </c>
       <c r="N14" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="O14" s="58" t="s">
+      <c r="O14" s="57" t="s">
         <v>139</v>
       </c>
       <c r="P14" s="45" t="s">
@@ -8155,7 +8273,7 @@
       <c r="B15" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="58" t="s">
         <v>114</v>
       </c>
       <c r="D15" s="45" t="s">
@@ -8182,16 +8300,16 @@
       <c r="K15" s="56">
         <v>120</v>
       </c>
-      <c r="L15" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="60" t="s">
+      <c r="L15" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="47" t="s">
         <v>9</v>
       </c>
       <c r="N15" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="O15" s="58" t="s">
+      <c r="O15" s="57" t="s">
         <v>139</v>
       </c>
       <c r="P15" s="45" t="s">
@@ -8292,7 +8410,7 @@
       <c r="B16" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="58" t="s">
         <v>114</v>
       </c>
       <c r="D16" s="45" t="s">
@@ -8319,16 +8437,16 @@
       <c r="K16" s="56">
         <v>120</v>
       </c>
-      <c r="L16" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" s="60" t="s">
+      <c r="L16" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="47" t="s">
         <v>9</v>
       </c>
       <c r="N16" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="O16" s="58" t="s">
+      <c r="O16" s="57" t="s">
         <v>139</v>
       </c>
       <c r="P16" s="45" t="s">
@@ -8429,7 +8547,7 @@
       <c r="B17" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="58" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="45" t="s">
@@ -8456,16 +8574,16 @@
       <c r="K17" s="56">
         <v>180</v>
       </c>
-      <c r="L17" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" s="60" t="s">
+      <c r="L17" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="47" t="s">
         <v>9</v>
       </c>
       <c r="N17" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="O17" s="58" t="s">
+      <c r="O17" s="57" t="s">
         <v>139</v>
       </c>
       <c r="P17" s="45" t="s">
@@ -8564,94 +8682,94 @@
         <v>18</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>195</v>
+        <v>242</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>232</v>
       </c>
       <c r="D18" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="F18" s="45" t="s">
         <v>93</v>
       </c>
       <c r="G18" s="47">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H18" s="45" t="s">
         <v>206</v>
       </c>
       <c r="I18" s="56">
-        <v>120</v>
+        <v>62.5</v>
       </c>
       <c r="J18" s="45" t="s">
         <v>94</v>
       </c>
       <c r="K18" s="56">
-        <v>120</v>
-      </c>
-      <c r="L18" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="47" t="s">
         <v>9</v>
       </c>
       <c r="N18" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="O18" s="58" t="s">
-        <v>139</v>
+      <c r="O18" s="57" t="s">
+        <v>237</v>
       </c>
       <c r="P18" s="45" t="s">
         <v>92</v>
       </c>
       <c r="Q18" s="47" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="R18" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="S18" s="47">
-        <v>0.71</v>
+        <v>9</v>
+      </c>
+      <c r="S18" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="T18" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="U18" s="47">
-        <v>1.1100000000000001</v>
+        <v>9</v>
+      </c>
+      <c r="U18" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="V18" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="W18" s="47">
-        <v>1.45</v>
+        <v>9</v>
+      </c>
+      <c r="W18" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="X18" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y18" s="47">
-        <v>2.0299999999999998</v>
+        <v>9</v>
+      </c>
+      <c r="Y18" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="Z18" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA18" s="47">
-        <v>2.08</v>
+        <v>9</v>
+      </c>
+      <c r="AA18" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="AB18" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC18" s="47">
-        <v>1.96</v>
+        <v>9</v>
+      </c>
+      <c r="AC18" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="AD18" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE18" s="47" t="s">
-        <v>9</v>
+        <v>144</v>
+      </c>
+      <c r="AE18" s="47">
+        <v>0.85</v>
       </c>
       <c r="AF18" s="45" t="s">
         <v>9</v>
@@ -8701,16 +8819,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>196</v>
+        <v>210</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>195</v>
       </c>
       <c r="D19" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F19" s="45" t="s">
         <v>93</v>
@@ -8719,27 +8837,27 @@
         <v>4</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="47" t="s">
-        <v>9</v>
+        <v>206</v>
+      </c>
+      <c r="I19" s="56">
+        <v>120</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="K19" s="56">
         <v>120</v>
       </c>
-      <c r="L19" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19" s="60" t="s">
+      <c r="L19" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="47" t="s">
         <v>9</v>
       </c>
       <c r="N19" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="O19" s="58" t="s">
+      <c r="O19" s="57" t="s">
         <v>139</v>
       </c>
       <c r="P19" s="45" t="s">
@@ -8830,11 +8948,290 @@
         <v>9</v>
       </c>
       <c r="AS19" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="42">
+        <v>20</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="47">
+        <v>4</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" s="56">
+        <v>120</v>
+      </c>
+      <c r="L20" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="R20" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="S20" s="47">
+        <v>0.71</v>
+      </c>
+      <c r="T20" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="U20" s="47">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="V20" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="W20" s="47">
+        <v>1.45</v>
+      </c>
+      <c r="X20" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y20" s="47">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="Z20" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA20" s="47">
+        <v>2.08</v>
+      </c>
+      <c r="AB20" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC20" s="47">
+        <v>1.96</v>
+      </c>
+      <c r="AD20" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE20" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF20" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG20" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH20" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI20" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ20" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK20" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL20" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM20" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN20" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO20" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP20" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ20" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR20" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS20" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="42">
+        <v>21</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="O21" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="P21" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q21" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="R21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="U21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="V21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="W21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="X21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD21" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE21" s="47">
+        <v>0.85</v>
+      </c>
+      <c r="AF21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS21" s="47" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -8906,15 +9303,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1 B3:G1048576 C2:G2">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 A1:B1">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/TETO/Ontologia_TETOS.xlsx
+++ b/Versão5/TETO/Ontologia_TETOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\TETO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADD7D86-11B2-4BA2-B713-DF520F13E79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154CD9E3-9DDB-4DD3-9E42-A59A5468E8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="471" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Interop" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$C$1:$C$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$C$1:$C$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Interop!$B$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="267">
   <si>
     <t>EquivalentTo: 
 Raiz
@@ -802,6 +802,78 @@
   </si>
   <si>
     <t>PLA.125x62</t>
+  </si>
+  <si>
+    <t>CategoriaRvt</t>
+  </si>
+  <si>
+    <t>ClasseIfc</t>
+  </si>
+  <si>
+    <t>Projeto.Básico</t>
+  </si>
+  <si>
+    <t>LoD.200</t>
+  </si>
+  <si>
+    <t>LoD.300</t>
+  </si>
+  <si>
+    <t>Núcleo</t>
+  </si>
+  <si>
+    <t>OST_Ceilings</t>
+  </si>
+  <si>
+    <t>OST_CeilingsStructure</t>
+  </si>
+  <si>
+    <t>IfcCovering</t>
+  </si>
+  <si>
+    <t>OST_CeilingsFinish1 , OST_CeilingsFinish2</t>
+  </si>
+  <si>
+    <t>OST_CeilingsInsulation</t>
+  </si>
+  <si>
+    <t>OST_CeilingsSubstrate</t>
+  </si>
+  <si>
+    <t>LoD.100</t>
+  </si>
+  <si>
+    <t>Forro definido em etapas iniciais do projeto em Nivel de detalhamento 100.</t>
+  </si>
+  <si>
+    <t>Forro definido em etapas iniciais do projeto em Nivel de detalhamento 300.</t>
+  </si>
+  <si>
+    <t>Forro definido em etapas iniciais do projeto em Nivel de detalhamento 200.</t>
+  </si>
+  <si>
+    <t>Forros</t>
+  </si>
+  <si>
+    <t>LoD.Forro</t>
+  </si>
+  <si>
+    <t>Núcleo.Forro</t>
+  </si>
+  <si>
+    <t>Estrutura do núcleo do teto.</t>
+  </si>
+  <si>
+    <t>Cielorraso definido en las primeras etapas del proyecto en el Nivel de Detalle 100.</t>
+  </si>
+  <si>
+    <t>Cielorraso definido en las primeras etapas del proyecto en el Nivel de Detalle 200.</t>
+  </si>
+  <si>
+    <t>Cielorraso definido en las primeras etapas del proyecto en el Nivel de Detalle 300.</t>
+  </si>
+  <si>
+    <t>Estructura del núcleo del cielorraso.</t>
   </si>
 </sst>
 </file>
@@ -891,7 +963,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1018,8 +1090,14 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1103,11 +1181,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1309,25 +1398,17 @@
     <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="161">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
+  <dxfs count="183">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1360,9 +1441,246 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color rgb="FFFFFFFF"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3504,7 +3822,7 @@
       </c>
       <c r="B18" s="39">
         <f ca="1">NOW()</f>
-        <v>45915.628347685182</v>
+        <v>45922.591860069442</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.5500000000000007" customHeight="1" x14ac:dyDescent="0.4">
@@ -3554,38 +3872,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96052D63-9637-42D9-866B-0BB924A50D8C}">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A179" sqref="A179:XFD190"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.3828125" customWidth="1"/>
     <col min="2" max="2" width="3.61328125" customWidth="1"/>
-    <col min="3" max="3" width="4.23046875" customWidth="1"/>
-    <col min="4" max="4" width="5.921875" customWidth="1"/>
+    <col min="3" max="3" width="6.3046875" customWidth="1"/>
+    <col min="4" max="4" width="7.23046875" customWidth="1"/>
     <col min="5" max="5" width="5.84375" customWidth="1"/>
     <col min="6" max="6" width="9.07421875" customWidth="1"/>
     <col min="7" max="11" width="5.53515625" style="29" customWidth="1"/>
-    <col min="12" max="12" width="3.921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.84375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.69140625" customWidth="1"/>
     <col min="14" max="14" width="5.3828125" customWidth="1"/>
     <col min="15" max="15" width="7.921875" customWidth="1"/>
     <col min="16" max="16" width="42.4609375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="50.84375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3" style="66" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.3828125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.23046875" customWidth="1"/>
     <col min="20" max="20" width="5.84375" customWidth="1"/>
     <col min="21" max="21" width="5.61328125" customWidth="1"/>
     <col min="22" max="22" width="5.53515625" customWidth="1"/>
     <col min="23" max="23" width="6.07421875" style="29" customWidth="1"/>
+    <col min="24" max="24" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="36" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="36" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31">
         <v>1</v>
       </c>
@@ -3655,8 +3974,14 @@
       <c r="W1" s="31" t="s">
         <v>8</v>
       </c>
+      <c r="X1" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y1" s="69" t="s">
+        <v>244</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="23">
         <v>2</v>
       </c>
@@ -3691,7 +4016,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="26" t="str">
-        <f t="shared" ref="L2:M17" si="0">CONCATENATE("", C2)</f>
+        <f t="shared" ref="L2:M21" si="0">CONCATENATE("", C2)</f>
         <v>Gestão</v>
       </c>
       <c r="M2" s="26" t="str">
@@ -3716,7 +4041,7 @@
         <v>9</v>
       </c>
       <c r="S2" s="28" t="str">
-        <f t="shared" ref="S2:U24" si="1">SUBSTITUTE(C2, ".", " ")</f>
+        <f t="shared" ref="S2:U28" si="1">SUBSTITUTE(C2, ".", " ")</f>
         <v>Gestão</v>
       </c>
       <c r="T2" s="28" t="str">
@@ -3731,28 +4056,34 @@
         <v>85</v>
       </c>
       <c r="W2" s="1" t="str">
-        <f>CONCATENATE("Key-Teto-",A2)</f>
-        <v>Key-Teto-2</v>
+        <f t="shared" ref="W2:W33" si="2">CONCATENATE("Key.",LEFT(C2,3),".",A2)</f>
+        <v>Key.Ges.2</v>
+      </c>
+      <c r="X2" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="23">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>107</v>
+      <c r="C3" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>158</v>
+        <v>259</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>9</v>
@@ -3770,68 +4101,74 @@
         <v>9</v>
       </c>
       <c r="L3" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Forro</v>
+        <f t="shared" ref="L3" si="3">CONCATENATE("", C3)</f>
+        <v>Projeto.Básico</v>
       </c>
       <c r="M3" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Composição</v>
+        <f t="shared" ref="M3" si="4">CONCATENATE("", D3)</f>
+        <v>Forros</v>
       </c>
       <c r="N3" s="26" t="str">
-        <f t="shared" ref="N3:N7" si="2">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E3),"."," ")," De "," de "))</f>
-        <v>Cola</v>
+        <f t="shared" ref="N3" si="5">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E3),"."," ")," De "," de "))</f>
+        <v>LoD Forro</v>
       </c>
       <c r="O3" s="21" t="str">
-        <f t="shared" ref="O3:O7" si="3">F3</f>
-        <v>Para.Madeira</v>
+        <f t="shared" ref="O3" si="6">F3</f>
+        <v>LoD.100</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="Q3" s="41" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S3" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v>Forro</v>
+        <f t="shared" ref="S3" si="7">SUBSTITUTE(C3, ".", " ")</f>
+        <v>Projeto Básico</v>
       </c>
       <c r="T3" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v>Composição</v>
+        <f t="shared" ref="T3" si="8">SUBSTITUTE(D3, ".", " ")</f>
+        <v>Forros</v>
       </c>
       <c r="U3" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v>Cola</v>
+        <f t="shared" ref="U3" si="9">SUBSTITUTE(E3, ".", " ")</f>
+        <v>LoD Forro</v>
       </c>
       <c r="V3" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W29" si="4">CONCATENATE("Key-Teto-",A3)</f>
-        <v>Key-Teto-3</v>
+        <f t="shared" ref="W3" si="10">CONCATENATE("Key.",LEFT(C3,3),".",A3)</f>
+        <v>Key.Pro.3</v>
+      </c>
+      <c r="X3" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y3" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>107</v>
+      <c r="C4" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>158</v>
+        <v>259</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>9</v>
@@ -3850,67 +4187,73 @@
       </c>
       <c r="L4" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Forro</v>
+        <v>Projeto.Básico</v>
       </c>
       <c r="M4" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Composição</v>
+        <v>Forros</v>
       </c>
       <c r="N4" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cola</v>
+        <f t="shared" ref="N4:N6" si="11">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E4),"."," ")," De "," de "))</f>
+        <v>LoD Forro</v>
       </c>
       <c r="O4" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Para.Metais</v>
+        <f t="shared" ref="O4:O6" si="12">F4</f>
+        <v>LoD.200</v>
       </c>
       <c r="P4" s="41" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="Q4" s="41" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="R4" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S4" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Forro</v>
+        <v>Projeto Básico</v>
       </c>
       <c r="T4" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Composição</v>
+        <v>Forros</v>
       </c>
       <c r="U4" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Cola</v>
+        <v>LoD Forro</v>
       </c>
       <c r="V4" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W4" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-4</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pro.4</v>
+      </c>
+      <c r="X4" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y4" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="23">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>107</v>
+      <c r="C5" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>158</v>
+        <v>259</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="G5" s="30" t="s">
         <v>9</v>
@@ -3929,50 +4272,56 @@
       </c>
       <c r="L5" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Forro</v>
+        <v>Projeto.Básico</v>
       </c>
       <c r="M5" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Composição</v>
+        <v>Forros</v>
       </c>
       <c r="N5" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cola</v>
+        <f t="shared" si="11"/>
+        <v>LoD Forro</v>
       </c>
       <c r="O5" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Para.Texteis</v>
+        <f t="shared" si="12"/>
+        <v>LoD.300</v>
       </c>
       <c r="P5" s="41" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="41" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="R5" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Forro</v>
+        <v>Projeto Básico</v>
       </c>
       <c r="T5" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Composição</v>
+        <v>Forros</v>
       </c>
       <c r="U5" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Cola</v>
+        <v>LoD Forro</v>
       </c>
       <c r="V5" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W5" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-5</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pro.5</v>
+      </c>
+      <c r="X5" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y5" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23">
         <v>6</v>
       </c>
@@ -3986,10 +4335,10 @@
         <v>158</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>9</v>
@@ -4015,18 +4364,18 @@
         <v>Composição</v>
       </c>
       <c r="N6" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cola</v>
+        <f t="shared" si="11"/>
+        <v>Núcleo</v>
       </c>
       <c r="O6" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Para.Espumas</v>
+        <f t="shared" si="12"/>
+        <v>Núcleo.Forro</v>
       </c>
       <c r="P6" s="41" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="Q6" s="41" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="R6" s="27" t="s">
         <v>9</v>
@@ -4041,17 +4390,23 @@
       </c>
       <c r="U6" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Cola</v>
+        <v>Núcleo</v>
       </c>
       <c r="V6" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W6" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-6</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.6</v>
+      </c>
+      <c r="X6" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y6" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="23">
         <v>7</v>
       </c>
@@ -4068,7 +4423,7 @@
         <v>213</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>9</v>
@@ -4094,18 +4449,18 @@
         <v>Composição</v>
       </c>
       <c r="N7" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N7:N11" si="13">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E7),"."," ")," De "," de "))</f>
         <v>Cola</v>
       </c>
       <c r="O7" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Para.Louças</v>
+        <f t="shared" ref="O7:O11" si="14">F7</f>
+        <v>Para.Madeira</v>
       </c>
       <c r="P7" s="41" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="41" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="R7" s="27" t="s">
         <v>9</v>
@@ -4126,11 +4481,17 @@
         <v>212</v>
       </c>
       <c r="W7" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-7</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.7</v>
+      </c>
+      <c r="X7" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y7" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="23">
         <v>8</v>
       </c>
@@ -4144,10 +4505,10 @@
         <v>158</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>9</v>
@@ -4173,18 +4534,18 @@
         <v>Composição</v>
       </c>
       <c r="N8" s="26" t="str">
-        <f t="shared" ref="N8:N17" si="5">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E8),"."," ")," De "," de "))</f>
-        <v>Argamassa</v>
+        <f t="shared" si="13"/>
+        <v>Cola</v>
       </c>
       <c r="O8" s="21" t="str">
-        <f t="shared" ref="O8:O17" si="6">F8</f>
-        <v>Assentamento</v>
+        <f t="shared" si="14"/>
+        <v>Para.Metais</v>
       </c>
       <c r="P8" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q8" s="40" t="s">
-        <v>179</v>
+        <v>218</v>
+      </c>
+      <c r="Q8" s="41" t="s">
+        <v>219</v>
       </c>
       <c r="R8" s="27" t="s">
         <v>9</v>
@@ -4199,17 +4560,23 @@
       </c>
       <c r="U8" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V8" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W8" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-8</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.8</v>
+      </c>
+      <c r="X8" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y8" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="23">
         <v>9</v>
       </c>
@@ -4223,10 +4590,10 @@
         <v>158</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>9</v>
@@ -4252,18 +4619,18 @@
         <v>Composição</v>
       </c>
       <c r="N9" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Argamassa</v>
+        <f t="shared" si="13"/>
+        <v>Cola</v>
       </c>
       <c r="O9" s="21" t="str">
-        <f t="shared" si="6"/>
-        <v>Chapisco</v>
+        <f t="shared" si="14"/>
+        <v>Para.Texteis</v>
       </c>
       <c r="P9" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q9" s="40" t="s">
-        <v>182</v>
+        <v>221</v>
+      </c>
+      <c r="Q9" s="41" t="s">
+        <v>222</v>
       </c>
       <c r="R9" s="27" t="s">
         <v>9</v>
@@ -4278,17 +4645,23 @@
       </c>
       <c r="U9" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V9" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W9" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-9</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.9</v>
+      </c>
+      <c r="X9" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y9" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="23">
         <v>10</v>
       </c>
@@ -4302,10 +4675,10 @@
         <v>158</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>9</v>
@@ -4331,18 +4704,18 @@
         <v>Composição</v>
       </c>
       <c r="N10" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Argamassa</v>
+        <f t="shared" si="13"/>
+        <v>Cola</v>
       </c>
       <c r="O10" s="21" t="str">
-        <f t="shared" si="6"/>
-        <v>Emboço</v>
+        <f t="shared" si="14"/>
+        <v>Para.Espumas</v>
       </c>
       <c r="P10" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q10" s="40" t="s">
-        <v>185</v>
+        <v>224</v>
+      </c>
+      <c r="Q10" s="41" t="s">
+        <v>225</v>
       </c>
       <c r="R10" s="27" t="s">
         <v>9</v>
@@ -4357,17 +4730,23 @@
       </c>
       <c r="U10" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V10" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W10" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-10</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.10</v>
+      </c>
+      <c r="X10" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y10" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="23">
         <v>11</v>
       </c>
@@ -4381,10 +4760,10 @@
         <v>158</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>9</v>
@@ -4410,18 +4789,18 @@
         <v>Composição</v>
       </c>
       <c r="N11" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>Argamassa</v>
+        <f t="shared" si="13"/>
+        <v>Cola</v>
       </c>
       <c r="O11" s="21" t="str">
-        <f t="shared" si="6"/>
-        <v>Reboco</v>
+        <f t="shared" si="14"/>
+        <v>Para.Louças</v>
       </c>
       <c r="P11" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q11" s="40" t="s">
-        <v>188</v>
+        <v>227</v>
+      </c>
+      <c r="Q11" s="41" t="s">
+        <v>228</v>
       </c>
       <c r="R11" s="27" t="s">
         <v>9</v>
@@ -4436,17 +4815,23 @@
       </c>
       <c r="U11" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V11" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W11" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-11</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.11</v>
+      </c>
+      <c r="X11" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y11" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23">
         <v>12</v>
       </c>
@@ -4463,7 +4848,7 @@
         <v>159</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>9</v>
@@ -4489,18 +4874,18 @@
         <v>Composição</v>
       </c>
       <c r="N12" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N12:N21" si="15">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E12),"."," ")," De "," de "))</f>
         <v>Argamassa</v>
       </c>
       <c r="O12" s="21" t="str">
-        <f t="shared" si="6"/>
-        <v>Niveladora</v>
+        <f t="shared" ref="O12:O21" si="16">F12</f>
+        <v>Assentamento</v>
       </c>
       <c r="P12" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q12" s="41" t="s">
-        <v>190</v>
+        <v>178</v>
+      </c>
+      <c r="Q12" s="40" t="s">
+        <v>179</v>
       </c>
       <c r="R12" s="27" t="s">
         <v>9</v>
@@ -4521,11 +4906,17 @@
         <v>212</v>
       </c>
       <c r="W12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-12</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.12</v>
+      </c>
+      <c r="X12" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y12" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="23">
         <v>13</v>
       </c>
@@ -4542,7 +4933,7 @@
         <v>159</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>9</v>
@@ -4568,18 +4959,18 @@
         <v>Composição</v>
       </c>
       <c r="N13" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Argamassa</v>
       </c>
       <c r="O13" s="21" t="str">
-        <f t="shared" si="6"/>
-        <v>Colante</v>
+        <f t="shared" si="16"/>
+        <v>Chapisco</v>
       </c>
       <c r="P13" s="41" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="40" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="R13" s="27" t="s">
         <v>9</v>
@@ -4600,11 +4991,17 @@
         <v>212</v>
       </c>
       <c r="W13" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-13</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.13</v>
+      </c>
+      <c r="X13" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y13" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23">
         <v>14</v>
       </c>
@@ -4620,8 +5017,8 @@
       <c r="E14" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F14" s="65" t="s">
-        <v>161</v>
+      <c r="F14" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>9</v>
@@ -4647,18 +5044,18 @@
         <v>Composição</v>
       </c>
       <c r="N14" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Argamassa</v>
       </c>
       <c r="O14" s="21" t="str">
-        <f t="shared" si="6"/>
-        <v>Graute</v>
-      </c>
-      <c r="P14" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q14" s="28" t="s">
-        <v>163</v>
+        <f t="shared" si="16"/>
+        <v>Emboço</v>
+      </c>
+      <c r="P14" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q14" s="40" t="s">
+        <v>185</v>
       </c>
       <c r="R14" s="27" t="s">
         <v>9</v>
@@ -4679,11 +5076,17 @@
         <v>212</v>
       </c>
       <c r="W14" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-14</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.14</v>
+      </c>
+      <c r="X14" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y14" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="23">
         <v>15</v>
       </c>
@@ -4699,8 +5102,8 @@
       <c r="E15" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="65" t="s">
-        <v>164</v>
+      <c r="F15" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>9</v>
@@ -4726,18 +5129,18 @@
         <v>Composição</v>
       </c>
       <c r="N15" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Argamassa</v>
       </c>
       <c r="O15" s="21" t="str">
-        <f t="shared" si="6"/>
-        <v>Polimérica</v>
-      </c>
-      <c r="P15" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q15" s="28" t="s">
-        <v>166</v>
+        <f t="shared" si="16"/>
+        <v>Reboco</v>
+      </c>
+      <c r="P15" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q15" s="40" t="s">
+        <v>188</v>
       </c>
       <c r="R15" s="27" t="s">
         <v>9</v>
@@ -4758,11 +5161,17 @@
         <v>212</v>
       </c>
       <c r="W15" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-15</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.15</v>
+      </c>
+      <c r="X15" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y15" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23">
         <v>16</v>
       </c>
@@ -4778,8 +5187,8 @@
       <c r="E16" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F16" s="65" t="s">
-        <v>167</v>
+      <c r="F16" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>9</v>
@@ -4805,18 +5214,18 @@
         <v>Composição</v>
       </c>
       <c r="N16" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Argamassa</v>
       </c>
       <c r="O16" s="21" t="str">
-        <f t="shared" si="6"/>
-        <v>Rejunte</v>
-      </c>
-      <c r="P16" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q16" s="28" t="s">
-        <v>169</v>
+        <f t="shared" si="16"/>
+        <v>Niveladora</v>
+      </c>
+      <c r="P16" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q16" s="41" t="s">
+        <v>190</v>
       </c>
       <c r="R16" s="27" t="s">
         <v>9</v>
@@ -4837,11 +5246,17 @@
         <v>212</v>
       </c>
       <c r="W16" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-16</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.16</v>
+      </c>
+      <c r="X16" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y16" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23">
         <v>17</v>
       </c>
@@ -4857,8 +5272,8 @@
       <c r="E17" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F17" s="65" t="s">
-        <v>171</v>
+      <c r="F17" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>9</v>
@@ -4884,18 +5299,18 @@
         <v>Composição</v>
       </c>
       <c r="N17" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Argamassa</v>
       </c>
       <c r="O17" s="21" t="str">
-        <f t="shared" si="6"/>
-        <v>Baritada</v>
-      </c>
-      <c r="P17" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q17" s="28" t="s">
-        <v>176</v>
+        <f t="shared" si="16"/>
+        <v>Colante</v>
+      </c>
+      <c r="P17" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q17" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="R17" s="27" t="s">
         <v>9</v>
@@ -4916,11 +5331,17 @@
         <v>212</v>
       </c>
       <c r="W17" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-17</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.17</v>
+      </c>
+      <c r="X17" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y17" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23">
         <v>18</v>
       </c>
@@ -4931,13 +5352,13 @@
         <v>107</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>108</v>
+        <v>159</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>161</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>9</v>
@@ -4955,26 +5376,26 @@
         <v>9</v>
       </c>
       <c r="L18" s="26" t="str">
-        <f t="shared" ref="L18" si="7">CONCATENATE("", C18)</f>
+        <f t="shared" si="0"/>
         <v>Forro</v>
       </c>
       <c r="M18" s="26" t="str">
-        <f t="shared" ref="M18" si="8">CONCATENATE("", D18)</f>
-        <v>Aplicado</v>
+        <f t="shared" si="0"/>
+        <v>Composição</v>
       </c>
       <c r="N18" s="26" t="str">
-        <f t="shared" ref="N18" si="9">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E18),"."," ")," De "," de "))</f>
-        <v>Moldado</v>
+        <f t="shared" si="15"/>
+        <v>Argamassa</v>
       </c>
       <c r="O18" s="21" t="str">
-        <f t="shared" ref="O18" si="10">F18</f>
-        <v>Gesso</v>
-      </c>
-      <c r="P18" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q18" s="40" t="s">
-        <v>128</v>
+        <f t="shared" si="16"/>
+        <v>Graute</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q18" s="28" t="s">
+        <v>163</v>
       </c>
       <c r="R18" s="27" t="s">
         <v>9</v>
@@ -4985,21 +5406,27 @@
       </c>
       <c r="T18" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Aplicado</v>
+        <v>Composição</v>
       </c>
       <c r="U18" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Moldado</v>
+        <v>Argamassa</v>
       </c>
       <c r="V18" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W18" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-18</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.18</v>
+      </c>
+      <c r="X18" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y18" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23">
         <v>19</v>
       </c>
@@ -5010,13 +5437,13 @@
         <v>107</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>110</v>
+        <v>159</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>167</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>9</v>
@@ -5034,130 +5461,142 @@
         <v>9</v>
       </c>
       <c r="L19" s="26" t="str">
-        <f t="shared" ref="L19:L24" si="11">CONCATENATE("", C19)</f>
+        <f t="shared" ref="L19" si="17">CONCATENATE("", C19)</f>
         <v>Forro</v>
       </c>
       <c r="M19" s="26" t="str">
-        <f t="shared" ref="M19:M24" si="12">CONCATENATE("", D19)</f>
-        <v>Aplicado</v>
+        <f t="shared" ref="M19" si="18">CONCATENATE("", D19)</f>
+        <v>Composição</v>
       </c>
       <c r="N19" s="26" t="str">
-        <f t="shared" ref="N19:N24" si="13">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E19),"."," ")," De "," de "))</f>
-        <v>Moldado</v>
+        <f t="shared" ref="N19" si="19">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E19),"."," ")," De "," de "))</f>
+        <v>Argamassa</v>
       </c>
       <c r="O19" s="21" t="str">
-        <f t="shared" ref="O19:O24" si="14">F19</f>
-        <v>Gesso.Emplacado</v>
-      </c>
-      <c r="P19" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q19" s="40" t="s">
-        <v>129</v>
+        <f t="shared" ref="O19" si="20">F19</f>
+        <v>Rejunte</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q19" s="28" t="s">
+        <v>169</v>
       </c>
       <c r="R19" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S19" s="28" t="str">
+        <f t="shared" ref="S19" si="21">SUBSTITUTE(C19, ".", " ")</f>
+        <v>Forro</v>
+      </c>
+      <c r="T19" s="28" t="str">
+        <f t="shared" ref="T19" si="22">SUBSTITUTE(D19, ".", " ")</f>
+        <v>Composição</v>
+      </c>
+      <c r="U19" s="28" t="str">
+        <f t="shared" ref="U19" si="23">SUBSTITUTE(E19, ".", " ")</f>
+        <v>Argamassa</v>
+      </c>
+      <c r="V19" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="W19" s="1" t="str">
+        <f t="shared" ref="W19" si="24">CONCATENATE("Key.",LEFT(C19,3),".",A19)</f>
+        <v>Key.For.19</v>
+      </c>
+      <c r="X19" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y19" s="70" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="23">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Forro</v>
+      </c>
+      <c r="M20" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Composição</v>
+      </c>
+      <c r="N20" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>Argamassa</v>
+      </c>
+      <c r="O20" s="21" t="str">
+        <f t="shared" si="16"/>
+        <v>Polimérica</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q20" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="R20" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Forro</v>
       </c>
-      <c r="T19" s="28" t="str">
+      <c r="T20" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Aplicado</v>
-      </c>
-      <c r="U19" s="28" t="str">
+        <v>Composição</v>
+      </c>
+      <c r="U20" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Moldado</v>
-      </c>
-      <c r="V19" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="W19" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="23">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="26" t="str">
-        <f t="shared" ref="L20" si="15">CONCATENATE("", C20)</f>
-        <v>Forro</v>
-      </c>
-      <c r="M20" s="26" t="str">
-        <f t="shared" ref="M20" si="16">CONCATENATE("", D20)</f>
-        <v>Removível</v>
-      </c>
-      <c r="N20" s="26" t="str">
-        <f t="shared" ref="N20" si="17">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E20),"."," ")," De "," de "))</f>
-        <v>Modular</v>
-      </c>
-      <c r="O20" s="21" t="str">
-        <f t="shared" ref="O20" si="18">F20</f>
-        <v>Placa.EPS</v>
-      </c>
-      <c r="P20" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="R20" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="S20" s="28" t="str">
-        <f t="shared" ref="S20" si="19">SUBSTITUTE(C20, ".", " ")</f>
-        <v>Forro</v>
-      </c>
-      <c r="T20" s="28" t="str">
-        <f t="shared" ref="T20" si="20">SUBSTITUTE(D20, ".", " ")</f>
-        <v>Removível</v>
-      </c>
-      <c r="U20" s="28" t="str">
-        <f t="shared" ref="U20" si="21">SUBSTITUTE(E20, ".", " ")</f>
-        <v>Modular</v>
+        <v>Argamassa</v>
       </c>
       <c r="V20" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W20" s="1" t="str">
-        <f t="shared" ref="W20" si="22">CONCATENATE("Key-Teto-",A20)</f>
-        <v>Key-Teto-20</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.20</v>
+      </c>
+      <c r="X20" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y20" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="23">
         <v>21</v>
       </c>
@@ -5168,13 +5607,13 @@
         <v>107</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>232</v>
+        <v>159</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>171</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>9</v>
@@ -5192,26 +5631,26 @@
         <v>9</v>
       </c>
       <c r="L21" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>Forro</v>
       </c>
       <c r="M21" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Removível</v>
+        <f t="shared" si="0"/>
+        <v>Composição</v>
       </c>
       <c r="N21" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Modular</v>
+        <f t="shared" si="15"/>
+        <v>Argamassa</v>
       </c>
       <c r="O21" s="21" t="str">
-        <f t="shared" si="14"/>
-        <v>Placa.Mineral</v>
-      </c>
-      <c r="P21" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q21" s="40" t="s">
-        <v>234</v>
+        <f t="shared" si="16"/>
+        <v>Baritada</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q21" s="28" t="s">
+        <v>176</v>
       </c>
       <c r="R21" s="27" t="s">
         <v>9</v>
@@ -5222,21 +5661,27 @@
       </c>
       <c r="T21" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Removível</v>
+        <v>Composição</v>
       </c>
       <c r="U21" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Modular</v>
+        <v>Argamassa</v>
       </c>
       <c r="V21" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-21</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.21</v>
+      </c>
+      <c r="X21" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y21" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="23">
         <v>22</v>
       </c>
@@ -5247,13 +5692,13 @@
         <v>107</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>9</v>
@@ -5271,51 +5716,57 @@
         <v>9</v>
       </c>
       <c r="L22" s="26" t="str">
-        <f t="shared" ref="L22" si="23">CONCATENATE("", C22)</f>
+        <f t="shared" ref="L22" si="25">CONCATENATE("", C22)</f>
         <v>Forro</v>
       </c>
       <c r="M22" s="26" t="str">
-        <f t="shared" ref="M22" si="24">CONCATENATE("", D22)</f>
-        <v>Acústico</v>
+        <f t="shared" ref="M22" si="26">CONCATENATE("", D22)</f>
+        <v>Aplicado</v>
       </c>
       <c r="N22" s="26" t="str">
-        <f t="shared" ref="N22" si="25">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E22),"."," ")," De "," de "))</f>
-        <v>Adesivado</v>
+        <f t="shared" ref="N22" si="27">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E22),"."," ")," De "," de "))</f>
+        <v>Moldado</v>
       </c>
       <c r="O22" s="21" t="str">
-        <f t="shared" ref="O22" si="26">F22</f>
-        <v>Placa.Espuma</v>
+        <f t="shared" ref="O22" si="28">F22</f>
+        <v>Gesso</v>
       </c>
       <c r="P22" s="41" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="40" t="s">
-        <v>231</v>
+        <v>128</v>
       </c>
       <c r="R22" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S22" s="28" t="str">
-        <f t="shared" ref="S22" si="27">SUBSTITUTE(C22, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Forro</v>
       </c>
       <c r="T22" s="28" t="str">
-        <f t="shared" ref="T22" si="28">SUBSTITUTE(D22, ".", " ")</f>
-        <v>Acústico</v>
+        <f t="shared" si="1"/>
+        <v>Aplicado</v>
       </c>
       <c r="U22" s="28" t="str">
-        <f t="shared" ref="U22" si="29">SUBSTITUTE(E22, ".", " ")</f>
-        <v>Adesivado</v>
+        <f t="shared" si="1"/>
+        <v>Moldado</v>
       </c>
       <c r="V22" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W22" s="1" t="str">
-        <f t="shared" ref="W22" si="30">CONCATENATE("Key-Teto-",A22)</f>
-        <v>Key-Teto-22</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.22</v>
+      </c>
+      <c r="X22" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="23">
         <v>23</v>
       </c>
@@ -5326,13 +5777,13 @@
         <v>107</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>9</v>
@@ -5350,26 +5801,26 @@
         <v>9</v>
       </c>
       <c r="L23" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="L23:L28" si="29">CONCATENATE("", C23)</f>
         <v>Forro</v>
       </c>
       <c r="M23" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Acústico</v>
+        <f t="shared" ref="M23:M28" si="30">CONCATENATE("", D23)</f>
+        <v>Aplicado</v>
       </c>
       <c r="N23" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Adesivado</v>
+        <f t="shared" ref="N23:N28" si="31">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E23),"."," ")," De "," de "))</f>
+        <v>Moldado</v>
       </c>
       <c r="O23" s="21" t="str">
-        <f t="shared" si="14"/>
-        <v>Placa.3D</v>
+        <f t="shared" ref="O23:O28" si="32">F23</f>
+        <v>Gesso.Emplacado</v>
       </c>
       <c r="P23" s="41" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="Q23" s="40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R23" s="27" t="s">
         <v>9</v>
@@ -5380,21 +5831,27 @@
       </c>
       <c r="T23" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Acústico</v>
+        <v>Aplicado</v>
       </c>
       <c r="U23" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Adesivado</v>
+        <v>Moldado</v>
       </c>
       <c r="V23" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W23" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-23</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.23</v>
+      </c>
+      <c r="X23" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y23" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="23">
         <v>24</v>
       </c>
@@ -5405,13 +5862,13 @@
         <v>107</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G24" s="30" t="s">
         <v>9</v>
@@ -5429,288 +5886,312 @@
         <v>9</v>
       </c>
       <c r="L24" s="26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="L24" si="33">CONCATENATE("", C24)</f>
         <v>Forro</v>
       </c>
       <c r="M24" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Acústico</v>
+        <f t="shared" ref="M24" si="34">CONCATENATE("", D24)</f>
+        <v>Removível</v>
       </c>
       <c r="N24" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Adesivado</v>
+        <f t="shared" ref="N24" si="35">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E24),"."," ")," De "," de "))</f>
+        <v>Modular</v>
       </c>
       <c r="O24" s="21" t="str">
-        <f t="shared" si="14"/>
-        <v>Placa.Shell</v>
+        <f t="shared" ref="O24" si="36">F24</f>
+        <v>Placa.EPS</v>
       </c>
       <c r="P24" s="41" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Q24" s="40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R24" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S24" s="28" t="str">
+        <f t="shared" ref="S24" si="37">SUBSTITUTE(C24, ".", " ")</f>
+        <v>Forro</v>
+      </c>
+      <c r="T24" s="28" t="str">
+        <f t="shared" ref="T24" si="38">SUBSTITUTE(D24, ".", " ")</f>
+        <v>Removível</v>
+      </c>
+      <c r="U24" s="28" t="str">
+        <f t="shared" ref="U24" si="39">SUBSTITUTE(E24, ".", " ")</f>
+        <v>Modular</v>
+      </c>
+      <c r="V24" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="W24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.For.24</v>
+      </c>
+      <c r="X24" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y24" s="70" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="23">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="26" t="str">
+        <f t="shared" si="29"/>
+        <v>Forro</v>
+      </c>
+      <c r="M25" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Removível</v>
+      </c>
+      <c r="N25" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>Modular</v>
+      </c>
+      <c r="O25" s="21" t="str">
+        <f t="shared" si="32"/>
+        <v>Placa.Mineral</v>
+      </c>
+      <c r="P25" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q25" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="R25" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S25" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Forro</v>
       </c>
-      <c r="T24" s="28" t="str">
+      <c r="T25" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Removível</v>
+      </c>
+      <c r="U25" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Modular</v>
+      </c>
+      <c r="V25" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="W25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.For.25</v>
+      </c>
+      <c r="X25" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y25" s="70" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="23">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="26" t="str">
+        <f t="shared" ref="L26" si="40">CONCATENATE("", C26)</f>
+        <v>Forro</v>
+      </c>
+      <c r="M26" s="26" t="str">
+        <f t="shared" ref="M26" si="41">CONCATENATE("", D26)</f>
+        <v>Acústico</v>
+      </c>
+      <c r="N26" s="26" t="str">
+        <f t="shared" ref="N26" si="42">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E26),"."," ")," De "," de "))</f>
+        <v>Adesivado</v>
+      </c>
+      <c r="O26" s="21" t="str">
+        <f t="shared" ref="O26" si="43">F26</f>
+        <v>Placa.Espuma</v>
+      </c>
+      <c r="P26" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q26" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="R26" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S26" s="28" t="str">
+        <f t="shared" ref="S26" si="44">SUBSTITUTE(C26, ".", " ")</f>
+        <v>Forro</v>
+      </c>
+      <c r="T26" s="28" t="str">
+        <f t="shared" ref="T26" si="45">SUBSTITUTE(D26, ".", " ")</f>
+        <v>Acústico</v>
+      </c>
+      <c r="U26" s="28" t="str">
+        <f t="shared" ref="U26" si="46">SUBSTITUTE(E26, ".", " ")</f>
+        <v>Adesivado</v>
+      </c>
+      <c r="V26" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="W26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.For.26</v>
+      </c>
+      <c r="X26" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y26" s="70" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="23">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="26" t="str">
+        <f t="shared" si="29"/>
+        <v>Forro</v>
+      </c>
+      <c r="M27" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Acústico</v>
+      </c>
+      <c r="N27" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>Adesivado</v>
+      </c>
+      <c r="O27" s="21" t="str">
+        <f t="shared" si="32"/>
+        <v>Placa.3D</v>
+      </c>
+      <c r="P27" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q27" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="R27" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Forro</v>
+      </c>
+      <c r="T27" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Acústico</v>
       </c>
-      <c r="U24" s="28" t="str">
+      <c r="U27" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Adesivado</v>
       </c>
-      <c r="V24" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="W24" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="23">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="26" t="str">
-        <f t="shared" ref="L25" si="31">CONCATENATE("", C25)</f>
-        <v>Forro</v>
-      </c>
-      <c r="M25" s="26" t="str">
-        <f t="shared" ref="M25" si="32">CONCATENATE("", D25)</f>
-        <v>Acústico</v>
-      </c>
-      <c r="N25" s="26" t="str">
-        <f t="shared" ref="N25" si="33">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E25),"."," ")," De "," de "))</f>
-        <v>Suspenso</v>
-      </c>
-      <c r="O25" s="21" t="str">
-        <f t="shared" ref="O25" si="34">F25</f>
-        <v>Baffle.Cilíndrico</v>
-      </c>
-      <c r="P25" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q25" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="R25" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="S25" s="28" t="str">
-        <f t="shared" ref="S25" si="35">SUBSTITUTE(C25, ".", " ")</f>
-        <v>Forro</v>
-      </c>
-      <c r="T25" s="28" t="str">
-        <f t="shared" ref="T25" si="36">SUBSTITUTE(D25, ".", " ")</f>
-        <v>Acústico</v>
-      </c>
-      <c r="U25" s="28" t="str">
-        <f t="shared" ref="U25" si="37">SUBSTITUTE(E25, ".", " ")</f>
-        <v>Suspenso</v>
-      </c>
-      <c r="V25" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="W25" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="23">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L26" s="26" t="str">
-        <f t="shared" ref="L26:L28" si="38">CONCATENATE("", C26)</f>
-        <v>Forro</v>
-      </c>
-      <c r="M26" s="26" t="str">
-        <f t="shared" ref="M26:M28" si="39">CONCATENATE("", D26)</f>
-        <v>Acústico</v>
-      </c>
-      <c r="N26" s="26" t="str">
-        <f t="shared" ref="N26:N28" si="40">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E26),"."," ")," De "," de "))</f>
-        <v>Suspenso</v>
-      </c>
-      <c r="O26" s="21" t="str">
-        <f t="shared" ref="O26:O28" si="41">F26</f>
-        <v>Baffle.Linear</v>
-      </c>
-      <c r="P26" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q26" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="R26" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="S26" s="28" t="str">
-        <f t="shared" ref="S26:U29" si="42">SUBSTITUTE(C26, ".", " ")</f>
-        <v>Forro</v>
-      </c>
-      <c r="T26" s="28" t="str">
-        <f t="shared" si="42"/>
-        <v>Acústico</v>
-      </c>
-      <c r="U26" s="28" t="str">
-        <f t="shared" si="42"/>
-        <v>Suspenso</v>
-      </c>
-      <c r="V26" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="W26" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="23">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" s="26" t="str">
-        <f t="shared" ref="L27" si="43">CONCATENATE("", C27)</f>
-        <v>Forro</v>
-      </c>
-      <c r="M27" s="26" t="str">
-        <f t="shared" ref="M27" si="44">CONCATENATE("", D27)</f>
-        <v>Acústico</v>
-      </c>
-      <c r="N27" s="26" t="str">
-        <f t="shared" ref="N27" si="45">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E27),"."," ")," De "," de "))</f>
-        <v>Suspenso</v>
-      </c>
-      <c r="O27" s="21" t="str">
-        <f t="shared" ref="O27" si="46">F27</f>
-        <v>Nuvem.Quadrada</v>
-      </c>
-      <c r="P27" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q27" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="R27" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="S27" s="28" t="str">
-        <f t="shared" ref="S27" si="47">SUBSTITUTE(C27, ".", " ")</f>
-        <v>Forro</v>
-      </c>
-      <c r="T27" s="28" t="str">
-        <f t="shared" ref="T27" si="48">SUBSTITUTE(D27, ".", " ")</f>
-        <v>Acústico</v>
-      </c>
-      <c r="U27" s="28" t="str">
-        <f t="shared" ref="U27" si="49">SUBSTITUTE(E27, ".", " ")</f>
-        <v>Suspenso</v>
-      </c>
       <c r="V27" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W27" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-27</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.27</v>
+      </c>
+      <c r="X27" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y27" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="23">
         <v>28</v>
       </c>
@@ -5724,10 +6205,10 @@
         <v>115</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>9</v>
@@ -5745,51 +6226,57 @@
         <v>9</v>
       </c>
       <c r="L28" s="26" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>Forro</v>
       </c>
       <c r="M28" s="26" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="30"/>
         <v>Acústico</v>
       </c>
       <c r="N28" s="26" t="str">
-        <f t="shared" si="40"/>
-        <v>Suspenso</v>
+        <f t="shared" si="31"/>
+        <v>Adesivado</v>
       </c>
       <c r="O28" s="21" t="str">
-        <f t="shared" si="41"/>
-        <v>Nuvem.Circular</v>
+        <f t="shared" si="32"/>
+        <v>Placa.Shell</v>
       </c>
       <c r="P28" s="41" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="Q28" s="40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R28" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S28" s="28" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="1"/>
         <v>Forro</v>
       </c>
       <c r="T28" s="28" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="1"/>
         <v>Acústico</v>
       </c>
       <c r="U28" s="28" t="str">
-        <f t="shared" si="42"/>
-        <v>Suspenso</v>
+        <f t="shared" si="1"/>
+        <v>Adesivado</v>
       </c>
       <c r="V28" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-28</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.28</v>
+      </c>
+      <c r="X28" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y28" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="23">
         <v>29</v>
       </c>
@@ -5806,7 +6293,7 @@
         <v>125</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="G29" s="30" t="s">
         <v>9</v>
@@ -5824,242 +6311,615 @@
         <v>9</v>
       </c>
       <c r="L29" s="26" t="str">
-        <f t="shared" ref="L29" si="50">CONCATENATE("", C29)</f>
+        <f t="shared" ref="L29" si="47">CONCATENATE("", C29)</f>
         <v>Forro</v>
       </c>
       <c r="M29" s="26" t="str">
-        <f t="shared" ref="M29" si="51">CONCATENATE("", D29)</f>
+        <f t="shared" ref="M29" si="48">CONCATENATE("", D29)</f>
         <v>Acústico</v>
       </c>
       <c r="N29" s="26" t="str">
-        <f t="shared" ref="N29" si="52">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E29),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N29" si="49">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E29),"."," ")," De "," de "))</f>
         <v>Suspenso</v>
       </c>
       <c r="O29" s="21" t="str">
-        <f t="shared" ref="O29" si="53">F29</f>
-        <v>Nuvem.Geométrica</v>
+        <f t="shared" ref="O29" si="50">F29</f>
+        <v>Baffle.Cilíndrico</v>
       </c>
       <c r="P29" s="41" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="Q29" s="40" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="R29" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S29" s="28" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="S29" si="51">SUBSTITUTE(C29, ".", " ")</f>
         <v>Forro</v>
       </c>
       <c r="T29" s="28" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="T29" si="52">SUBSTITUTE(D29, ".", " ")</f>
         <v>Acústico</v>
       </c>
       <c r="U29" s="28" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="U29" si="53">SUBSTITUTE(E29, ".", " ")</f>
         <v>Suspenso</v>
       </c>
       <c r="V29" s="28" t="s">
         <v>212</v>
       </c>
       <c r="W29" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Teto-29</v>
+        <f t="shared" si="2"/>
+        <v>Key.For.29</v>
+      </c>
+      <c r="X29" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y29" s="70" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="23">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="26" t="str">
+        <f t="shared" ref="L30:L32" si="54">CONCATENATE("", C30)</f>
+        <v>Forro</v>
+      </c>
+      <c r="M30" s="26" t="str">
+        <f t="shared" ref="M30:M32" si="55">CONCATENATE("", D30)</f>
+        <v>Acústico</v>
+      </c>
+      <c r="N30" s="26" t="str">
+        <f t="shared" ref="N30:N32" si="56">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E30),"."," ")," De "," de "))</f>
+        <v>Suspenso</v>
+      </c>
+      <c r="O30" s="21" t="str">
+        <f t="shared" ref="O30:O32" si="57">F30</f>
+        <v>Baffle.Linear</v>
+      </c>
+      <c r="P30" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q30" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="R30" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S30" s="28" t="str">
+        <f t="shared" ref="S30:U33" si="58">SUBSTITUTE(C30, ".", " ")</f>
+        <v>Forro</v>
+      </c>
+      <c r="T30" s="28" t="str">
+        <f t="shared" si="58"/>
+        <v>Acústico</v>
+      </c>
+      <c r="U30" s="28" t="str">
+        <f t="shared" si="58"/>
+        <v>Suspenso</v>
+      </c>
+      <c r="V30" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="W30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.For.30</v>
+      </c>
+      <c r="X30" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y30" s="70" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="23">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="26" t="str">
+        <f t="shared" ref="L31" si="59">CONCATENATE("", C31)</f>
+        <v>Forro</v>
+      </c>
+      <c r="M31" s="26" t="str">
+        <f t="shared" ref="M31" si="60">CONCATENATE("", D31)</f>
+        <v>Acústico</v>
+      </c>
+      <c r="N31" s="26" t="str">
+        <f t="shared" ref="N31" si="61">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E31),"."," ")," De "," de "))</f>
+        <v>Suspenso</v>
+      </c>
+      <c r="O31" s="21" t="str">
+        <f t="shared" ref="O31" si="62">F31</f>
+        <v>Nuvem.Quadrada</v>
+      </c>
+      <c r="P31" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q31" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="R31" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S31" s="28" t="str">
+        <f t="shared" ref="S31" si="63">SUBSTITUTE(C31, ".", " ")</f>
+        <v>Forro</v>
+      </c>
+      <c r="T31" s="28" t="str">
+        <f t="shared" ref="T31" si="64">SUBSTITUTE(D31, ".", " ")</f>
+        <v>Acústico</v>
+      </c>
+      <c r="U31" s="28" t="str">
+        <f t="shared" ref="U31" si="65">SUBSTITUTE(E31, ".", " ")</f>
+        <v>Suspenso</v>
+      </c>
+      <c r="V31" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="W31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.For.31</v>
+      </c>
+      <c r="X31" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y31" s="70" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="23">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Forro</v>
+      </c>
+      <c r="M32" s="26" t="str">
+        <f t="shared" si="55"/>
+        <v>Acústico</v>
+      </c>
+      <c r="N32" s="26" t="str">
+        <f t="shared" si="56"/>
+        <v>Suspenso</v>
+      </c>
+      <c r="O32" s="21" t="str">
+        <f t="shared" si="57"/>
+        <v>Nuvem.Circular</v>
+      </c>
+      <c r="P32" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q32" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="R32" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S32" s="28" t="str">
+        <f t="shared" si="58"/>
+        <v>Forro</v>
+      </c>
+      <c r="T32" s="28" t="str">
+        <f t="shared" si="58"/>
+        <v>Acústico</v>
+      </c>
+      <c r="U32" s="28" t="str">
+        <f t="shared" si="58"/>
+        <v>Suspenso</v>
+      </c>
+      <c r="V32" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="W32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.For.32</v>
+      </c>
+      <c r="X32" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y32" s="70" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="23">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="26" t="str">
+        <f t="shared" ref="L33" si="66">CONCATENATE("", C33)</f>
+        <v>Forro</v>
+      </c>
+      <c r="M33" s="26" t="str">
+        <f t="shared" ref="M33" si="67">CONCATENATE("", D33)</f>
+        <v>Acústico</v>
+      </c>
+      <c r="N33" s="26" t="str">
+        <f t="shared" ref="N33" si="68">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E33),"."," ")," De "," de "))</f>
+        <v>Suspenso</v>
+      </c>
+      <c r="O33" s="21" t="str">
+        <f t="shared" ref="O33" si="69">F33</f>
+        <v>Nuvem.Geométrica</v>
+      </c>
+      <c r="P33" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q33" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="R33" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S33" s="28" t="str">
+        <f t="shared" si="58"/>
+        <v>Forro</v>
+      </c>
+      <c r="T33" s="28" t="str">
+        <f t="shared" si="58"/>
+        <v>Acústico</v>
+      </c>
+      <c r="U33" s="28" t="str">
+        <f t="shared" si="58"/>
+        <v>Suspenso</v>
+      </c>
+      <c r="V33" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="W33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.For.33</v>
+      </c>
+      <c r="X33" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y33" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="160" priority="1475"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2 F8:F1048576">
-    <cfRule type="duplicateValues" dxfId="159" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="1498"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="158" priority="1435"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="1436"/>
-    <cfRule type="duplicateValues" dxfId="156" priority="1437"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="1438"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="1439"/>
-    <cfRule type="duplicateValues" dxfId="153" priority="1440"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="1460"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="1461"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="1462"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="1463"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="1458"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="1459"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F7">
-    <cfRule type="duplicateValues" dxfId="152" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="34"/>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="duplicateValues" dxfId="175" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F13">
-    <cfRule type="duplicateValues" dxfId="140" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="97"/>
+  <conditionalFormatting sqref="F7:F11">
+    <cfRule type="duplicateValues" dxfId="163" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F17">
-    <cfRule type="duplicateValues" dxfId="129" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="75"/>
+  <conditionalFormatting sqref="F12:F17">
+    <cfRule type="duplicateValues" dxfId="151" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="115"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F29">
-    <cfRule type="duplicateValues" dxfId="122" priority="2354"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="2355"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="2356"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="2357"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="2358"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="2359"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="2360"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="2361"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="2362"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="2363"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="2364"/>
+  <conditionalFormatting sqref="F12:F1048576 F1:F2">
+    <cfRule type="duplicateValues" dxfId="140" priority="80"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="111" priority="1476"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="1477"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="1478"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="1479"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="1480"/>
+  <conditionalFormatting sqref="F18:F21">
+    <cfRule type="duplicateValues" dxfId="139" priority="2396"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="2395"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="2394"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="2393"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="2392"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="2398"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="2397"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F1048576">
-    <cfRule type="duplicateValues" dxfId="106" priority="691"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="693"/>
+  <conditionalFormatting sqref="F22:F33">
+    <cfRule type="duplicateValues" dxfId="132" priority="2387"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="2377"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="2378"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="2379"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="2380"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="2381"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="2382"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="2383"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="2384"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="2385"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="2386"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P7">
-    <cfRule type="duplicateValues" dxfId="104" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="23"/>
+  <conditionalFormatting sqref="F34:F1048576 F1">
+    <cfRule type="duplicateValues" dxfId="121" priority="1500"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="1499"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="1501"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="1503"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="1502"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P13">
-    <cfRule type="duplicateValues" dxfId="93" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="86"/>
+  <conditionalFormatting sqref="F34:F1048576">
+    <cfRule type="duplicateValues" dxfId="116" priority="716"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="714"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P18:P19">
-    <cfRule type="duplicateValues" dxfId="82" priority="336"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="337"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="338"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="339"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="340"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="341"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="342"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="343"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="344"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="345"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="346"/>
+  <conditionalFormatting sqref="P7:P11">
+    <cfRule type="duplicateValues" dxfId="114" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P20:P21">
-    <cfRule type="duplicateValues" dxfId="71" priority="237"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="238"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="239"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="240"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="242"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="243"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="244"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="245"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="246"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="247"/>
+  <conditionalFormatting sqref="P12:P17">
+    <cfRule type="duplicateValues" dxfId="103" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="108"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22:P24">
-    <cfRule type="duplicateValues" dxfId="60" priority="270"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="271"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="272"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="273"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="274"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="275"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="276"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="277"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="278"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="279"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="280"/>
+  <conditionalFormatting sqref="P22:P23">
+    <cfRule type="duplicateValues" dxfId="92" priority="359"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="360"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="362"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="363"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="364"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="365"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="366"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="369"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="368"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P25">
-    <cfRule type="duplicateValues" dxfId="49" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="45"/>
+  <conditionalFormatting sqref="P24:P25">
+    <cfRule type="duplicateValues" dxfId="81" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="269"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P29">
-    <cfRule type="duplicateValues" dxfId="38" priority="2297"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="2298"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="2299"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="2300"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="2301"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="2302"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="2303"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="2304"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="2305"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="2306"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="2307"/>
+  <conditionalFormatting sqref="P26:P28">
+    <cfRule type="duplicateValues" dxfId="70" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="293"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="294"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="302"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="303"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q7">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
+  <conditionalFormatting sqref="P29">
+    <cfRule type="duplicateValues" dxfId="59" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12">
-    <cfRule type="duplicateValues" dxfId="16" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="68"/>
+  <conditionalFormatting sqref="P30:P33">
+    <cfRule type="duplicateValues" dxfId="48" priority="2325"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="2327"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="2328"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="2329"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="2330"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="2326"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="2320"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="2321"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2322"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="2323"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="2324"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q6">
+    <cfRule type="duplicateValues" dxfId="37" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7:Q11">
+    <cfRule type="duplicateValues" dxfId="26" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16">
+    <cfRule type="duplicateValues" dxfId="15" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="91"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6278,7 +7138,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6296,7 +7156,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R23" sqref="R23"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="7.3" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6936,8 +7796,8 @@
       <c r="M5" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="54" t="s">
-        <v>97</v>
+      <c r="N5" s="45" t="s">
+        <v>9</v>
       </c>
       <c r="O5" s="47" t="s">
         <v>9</v>
@@ -7073,8 +7933,8 @@
       <c r="M6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="54" t="s">
-        <v>97</v>
+      <c r="N6" s="45" t="s">
+        <v>9</v>
       </c>
       <c r="O6" s="47" t="s">
         <v>9</v>
@@ -7210,8 +8070,8 @@
       <c r="M7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="54" t="s">
-        <v>97</v>
+      <c r="N7" s="45" t="s">
+        <v>9</v>
       </c>
       <c r="O7" s="47" t="s">
         <v>9</v>
@@ -7347,8 +8207,8 @@
       <c r="M8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="54" t="s">
-        <v>97</v>
+      <c r="N8" s="45" t="s">
+        <v>9</v>
       </c>
       <c r="O8" s="47" t="s">
         <v>9</v>
@@ -9228,7 +10088,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9303,15 +10163,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1 B3:G1048576 C2:G2">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 A1:B1">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
